--- a/InputData/web-app/BCF/BTU Conversion Factors.xlsx
+++ b/InputData/web-app/BCF/BTU Conversion Factors.xlsx
@@ -4,18 +4,22 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="60" windowWidth="25875" windowHeight="10545"/>
+    <workbookView xWindow="120" yWindow="60" windowWidth="25880" windowHeight="10550"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
     <sheet name="AEO Table 73" sheetId="7" r:id="rId2"/>
     <sheet name="GREET1 Fuel_Specs" sheetId="9" r:id="rId3"/>
-    <sheet name="BCF-BpMSTHC" sheetId="5" r:id="rId4"/>
-    <sheet name="BCF-BpTCFNG" sheetId="6" r:id="rId5"/>
+    <sheet name="BCF-BHCpCOU" sheetId="5" r:id="rId4"/>
+    <sheet name="BCF-BNGpNGOU" sheetId="6" r:id="rId5"/>
     <sheet name="BCF-LFBCF" sheetId="4" r:id="rId6"/>
-    <sheet name="BCF-BpMSTL" sheetId="8" r:id="rId7"/>
+    <sheet name="BCF-BLpCOU" sheetId="8" r:id="rId7"/>
+    <sheet name="BCF-VFEUCF" sheetId="10" r:id="rId8"/>
   </sheets>
-  <calcPr calcId="145621" calcMode="manual" iterate="1" iterateDelta="1.0000000000000001E-5"/>
+  <definedNames>
+    <definedName name="gal_per_barrel">About!$A$34</definedName>
+  </definedNames>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
@@ -1170,7 +1174,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="408" uniqueCount="341">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="424" uniqueCount="356">
   <si>
     <t>(from physical units to million Btu)</t>
   </si>
@@ -1322,36 +1326,15 @@
     <t>Year</t>
   </si>
   <si>
-    <t>Petroleum Gasoline (BTU/million barrels)</t>
-  </si>
-  <si>
-    <t>Petroleum Diesel (BTU/million barrels)</t>
-  </si>
-  <si>
-    <t>Biofuel Gasoline (BTU/million barrels)</t>
-  </si>
-  <si>
-    <t>Biofuel Diesel (BTU/million barrels)</t>
-  </si>
-  <si>
-    <t>Jet Fuel (BTU/million barrels)</t>
-  </si>
-  <si>
     <t>Electricity (not used)</t>
   </si>
   <si>
     <t>Natural Gas (not used)</t>
   </si>
   <si>
-    <t>BCF BTU per Trillion Cubic Ft Natural Gas</t>
-  </si>
-  <si>
     <t>BCF Liquid Fuel BTU Conversion Factors</t>
   </si>
   <si>
-    <t>Natural Gas (BTU/trillion cubic ft)</t>
-  </si>
-  <si>
     <t>Petroleum and Other Liquids</t>
   </si>
   <si>
@@ -1613,18 +1596,6 @@
     <t>http://www.eia.gov/forecasts/aeo/supplement/excel/suptab_73.xlsx</t>
   </si>
   <si>
-    <t>BCF BTU per Million Short Tons Lignite</t>
-  </si>
-  <si>
-    <t>BCF BTU per Million Short Tons Hard Coal</t>
-  </si>
-  <si>
-    <t>Hard Coal (BTU/million short tons)</t>
-  </si>
-  <si>
-    <t>Lignite (BTU/million short tons)</t>
-  </si>
-  <si>
     <t>Specifications of Fuels, Global Warming Potentials of Greenhouse Gases, and Carbon and Sulfur Ratios of Pollutants</t>
   </si>
   <si>
@@ -2193,6 +2164,84 @@
   </si>
   <si>
     <t>use the higher heating value (HHV) for lignite from the GREET1 model.</t>
+  </si>
+  <si>
+    <t>Electricity</t>
+  </si>
+  <si>
+    <t>Natural Gas</t>
+  </si>
+  <si>
+    <t>Biofuel Gasoline</t>
+  </si>
+  <si>
+    <t>Biofuel Diesel</t>
+  </si>
+  <si>
+    <t>gallons per U.S. barrel</t>
+  </si>
+  <si>
+    <t>BCF Vehicle Fuel Economy Unit Conversion Factors</t>
+  </si>
+  <si>
+    <t>BCF BTU Hard Coal per Coal Output Unit</t>
+  </si>
+  <si>
+    <t>BCF BTU Lignite per Coal Output Unit</t>
+  </si>
+  <si>
+    <t>Hard Coal (BTU/coal output unit)</t>
+  </si>
+  <si>
+    <t>Lignite (BTU/coal output unit)</t>
+  </si>
+  <si>
+    <t>Relevant Conversion Factors</t>
+  </si>
+  <si>
+    <t>BCF BTU Natural Gas per Natural Gas Output Unit</t>
+  </si>
+  <si>
+    <t>Natural Gas (BTU/natural gas output unit)</t>
+  </si>
+  <si>
+    <t>In the U.S. model:</t>
+  </si>
+  <si>
+    <t>the coal output unit (used for hard coal and lignite) is: millions of short tons</t>
+  </si>
+  <si>
+    <t>the natural gas output unit is: trillion cubic feet</t>
+  </si>
+  <si>
+    <t>the liquid fuels output unit is: million barrels</t>
+  </si>
+  <si>
+    <t>the ouptut fuel economy unit is: miles per gallon</t>
+  </si>
+  <si>
+    <t>Petroleum Gasoline (BTU/liquid fuels output unit)</t>
+  </si>
+  <si>
+    <t>Petroleum Diesel (BTU/liquid fuels output unit)</t>
+  </si>
+  <si>
+    <t>Biofuel Gasoline (BTU/liquid fuels output unit)</t>
+  </si>
+  <si>
+    <t>Biofuel Diesel (BTU/liquid fuels output unit)</t>
+  </si>
+  <si>
+    <t>Jet Fuel (BTU/liquid fuels output unit)</t>
+  </si>
+  <si>
+    <t>Petroleum Gasoline (fuel economy units)</t>
+  </si>
+  <si>
+    <t>Petroleum Diesel (fuel economy units)</t>
+  </si>
+  <si>
+    <t>Jet Fuel (fuel economy units)</t>
   </si>
 </sst>
 </file>
@@ -3212,7 +3261,7 @@
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="203">
+  <cellXfs count="204">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -3605,6 +3654,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="42" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="38" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="19" xfId="55" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -4001,114 +4051,161 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B22"/>
+  <dimension ref="A1:B34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="63.7109375" customWidth="1"/>
+    <col min="2" max="2" width="63.7265625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>148</v>
+        <v>336</v>
       </c>
     </row>
     <row r="2" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>57</v>
+        <v>341</v>
       </c>
     </row>
     <row r="3" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>147</v>
+        <v>337</v>
       </c>
     </row>
     <row r="5" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="1"/>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+      <c r="A5" s="1" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="1"/>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
         <v>47</v>
       </c>
-      <c r="B6" s="201" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B7" t="s">
+      <c r="B7" s="201" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B8" s="3">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B9" s="3">
         <v>2016</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B9" t="s">
-        <v>142</v>
-      </c>
-    </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B10" s="4" t="s">
-        <v>146</v>
+      <c r="B10" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B11" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B13" s="201" t="s">
-        <v>333</v>
+      <c r="B11" s="4" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
+        <v>138</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B14" t="s">
-        <v>334</v>
+      <c r="B14" s="201" t="s">
+        <v>322</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B15" s="3">
+      <c r="B15" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B16" s="3">
         <v>2016</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B16" t="s">
-        <v>335</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
-        <v>337</v>
+        <v>324</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" s="1" t="s">
-        <v>338</v>
+        <v>326</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B19" t="s">
+        <v>325</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>339</v>
+      <c r="A21" s="1" t="s">
+        <v>327</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="25" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="2" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B26" s="2" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B27" s="2" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B28" s="2" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B29" s="2" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="31" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="32" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A32" s="1" t="s">
         <v>340</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A34" s="202">
+        <v>42</v>
+      </c>
+      <c r="B34" t="s">
+        <v>334</v>
       </c>
     </row>
   </sheetData>
@@ -4122,24 +4219,24 @@
   <dimension ref="A1:AD83"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C11" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
       <selection pane="bottomRight" activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="20.85546875" style="8" hidden="1" customWidth="1"/>
-    <col min="2" max="2" width="45.7109375" style="8" customWidth="1"/>
-    <col min="3" max="31" width="9.140625" style="8"/>
+    <col min="1" max="1" width="20.81640625" style="8" hidden="1" customWidth="1"/>
+    <col min="2" max="2" width="45.7265625" style="8" customWidth="1"/>
+    <col min="3" max="31" width="9.1796875" style="8"/>
     <col min="32" max="32" width="8" style="8" customWidth="1"/>
-    <col min="33" max="16384" width="9.140625" style="8"/>
+    <col min="33" max="16384" width="9.1796875" style="8"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:30" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B1" s="22" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="C1" s="20">
         <v>2014</v>
@@ -4226,10 +4323,10 @@
     <row r="2" spans="1:30" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.2"/>
     <row r="3" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C3" s="24" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="D3" s="24" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="E3" s="24"/>
       <c r="F3" s="24"/>
@@ -4237,23 +4334,23 @@
     </row>
     <row r="4" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C4" s="24" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="D4" s="24" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="E4" s="24"/>
       <c r="F4" s="24"/>
       <c r="G4" s="24" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
     </row>
     <row r="5" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C5" s="24" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="D5" s="24" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="E5" s="24"/>
       <c r="F5" s="24"/>
@@ -4261,21 +4358,21 @@
     </row>
     <row r="6" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C6" s="24" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="D6" s="24"/>
       <c r="E6" s="24" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="F6" s="24"/>
       <c r="G6" s="24"/>
     </row>
     <row r="10" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="13" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="B10" s="23" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
     </row>
     <row r="11" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -4369,7 +4466,7 @@
         <v>2</v>
       </c>
       <c r="AD12" s="21" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
     </row>
     <row r="13" spans="1:30" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -4463,17 +4560,17 @@
     </row>
     <row r="14" spans="1:30" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
       <c r="B14" s="17" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
     </row>
     <row r="15" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B15" s="17" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
     </row>
     <row r="16" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="13" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="B16" s="16" t="s">
         <v>3</v>
@@ -4565,7 +4662,7 @@
     </row>
     <row r="17" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="13" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="B17" s="16" t="s">
         <v>4</v>
@@ -4657,7 +4754,7 @@
     </row>
     <row r="18" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="13" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="B18" s="16" t="s">
         <v>5</v>
@@ -4749,7 +4846,7 @@
     </row>
     <row r="19" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="13" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="B19" s="16" t="s">
         <v>6</v>
@@ -4841,7 +4938,7 @@
     </row>
     <row r="20" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="13" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="B20" s="16" t="s">
         <v>7</v>
@@ -4933,7 +5030,7 @@
     </row>
     <row r="21" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="13" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="B21" s="16" t="s">
         <v>8</v>
@@ -5025,7 +5122,7 @@
     </row>
     <row r="22" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="13" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="B22" s="16" t="s">
         <v>9</v>
@@ -5117,7 +5214,7 @@
     </row>
     <row r="23" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="13" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="B23" s="16" t="s">
         <v>10</v>
@@ -5209,7 +5306,7 @@
     </row>
     <row r="24" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="13" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="B24" s="16" t="s">
         <v>11</v>
@@ -5301,7 +5398,7 @@
     </row>
     <row r="25" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="13" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="B25" s="16" t="s">
         <v>12</v>
@@ -5393,7 +5490,7 @@
     </row>
     <row r="26" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="13" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="B26" s="16" t="s">
         <v>13</v>
@@ -5485,7 +5582,7 @@
     </row>
     <row r="27" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="13" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="B27" s="16" t="s">
         <v>14</v>
@@ -5577,10 +5674,10 @@
     </row>
     <row r="28" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="13" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="B28" s="16" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="C28" s="18">
         <v>3.5579999999999998</v>
@@ -5669,7 +5766,7 @@
     </row>
     <row r="29" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="13" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="B29" s="16" t="s">
         <v>15</v>
@@ -5761,7 +5858,7 @@
     </row>
     <row r="30" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="13" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="B30" s="16" t="s">
         <v>16</v>
@@ -5853,7 +5950,7 @@
     </row>
     <row r="31" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="13" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="B31" s="16" t="s">
         <v>17</v>
@@ -5945,7 +6042,7 @@
     </row>
     <row r="32" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="13" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="B32" s="16" t="s">
         <v>18</v>
@@ -6037,7 +6134,7 @@
     </row>
     <row r="33" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="13" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="B33" s="16" t="s">
         <v>19</v>
@@ -6129,7 +6226,7 @@
     </row>
     <row r="34" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="13" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="B34" s="16" t="s">
         <v>20</v>
@@ -6221,7 +6318,7 @@
     </row>
     <row r="35" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="13" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="B35" s="16" t="s">
         <v>21</v>
@@ -6313,7 +6410,7 @@
     </row>
     <row r="36" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="13" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="B36" s="16" t="s">
         <v>22</v>
@@ -6405,7 +6502,7 @@
     </row>
     <row r="37" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="13" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="B37" s="16" t="s">
         <v>23</v>
@@ -6497,7 +6594,7 @@
     </row>
     <row r="38" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="13" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="B38" s="16" t="s">
         <v>24</v>
@@ -6589,7 +6686,7 @@
     </row>
     <row r="39" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="13" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="B39" s="16" t="s">
         <v>25</v>
@@ -6681,7 +6778,7 @@
     </row>
     <row r="40" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="13" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="B40" s="16" t="s">
         <v>26</v>
@@ -6773,7 +6870,7 @@
     </row>
     <row r="41" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="13" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="B41" s="16" t="s">
         <v>27</v>
@@ -6865,7 +6962,7 @@
     </row>
     <row r="42" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="13" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="B42" s="16" t="s">
         <v>28</v>
@@ -6955,9 +7052,9 @@
         <v>-7.1000000000000005E-5</v>
       </c>
     </row>
-    <row r="43" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A43" s="13" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="B43" s="16" t="s">
         <v>29</v>
@@ -7047,9 +7144,9 @@
         <v>-3.4200000000000002E-4</v>
       </c>
     </row>
-    <row r="44" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A44" s="13" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="B44" s="16" t="s">
         <v>30</v>
@@ -7139,9 +7236,9 @@
         <v>-5.28E-3</v>
       </c>
     </row>
-    <row r="45" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A45" s="13" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="B45" s="16" t="s">
         <v>31</v>
@@ -7231,17 +7328,17 @@
         <v>-1.9580000000000001E-3</v>
       </c>
     </row>
-    <row r="46" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B46" s="19" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="47" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="47" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A47" s="13" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="B47" s="16" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="C47" s="18">
         <v>5.8</v>
@@ -7328,12 +7425,12 @@
         <v>4.5000000000000003E-5</v>
       </c>
     </row>
-    <row r="48" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A48" s="13" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="B48" s="16" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="C48" s="18">
         <v>6.0860000000000003</v>
@@ -7420,12 +7517,12 @@
         <v>3.1599999999999998E-4</v>
       </c>
     </row>
-    <row r="49" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A49" s="13" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="B49" s="16" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="C49" s="18">
         <v>5.8</v>
@@ -7512,9 +7609,9 @@
         <v>-6.11E-4</v>
       </c>
     </row>
-    <row r="50" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A50" s="13" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="B50" s="16" t="s">
         <v>32</v>
@@ -7604,14 +7701,14 @@
         <v>-8.9599999999999999E-4</v>
       </c>
     </row>
-    <row r="52" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B52" s="17" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="53" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A53" s="13" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="B53" s="16" t="s">
         <v>34</v>
@@ -7701,12 +7798,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A54" s="13" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="B54" s="16" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="C54" s="18">
         <v>1.0289999999999999</v>
@@ -7793,9 +7890,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A55" s="13" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="B55" s="16" t="s">
         <v>35</v>
@@ -7885,9 +7982,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A56" s="13" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="B56" s="16" t="s">
         <v>36</v>
@@ -7977,9 +8074,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A57" s="13" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="B57" s="16" t="s">
         <v>37</v>
@@ -8069,9 +8166,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A58" s="13" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="B58" s="16" t="s">
         <v>38</v>
@@ -8161,9 +8258,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A59" s="13" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="B59" s="16" t="s">
         <v>39</v>
@@ -8253,14 +8350,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B61" s="17" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="62" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A62" s="13" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="B62" s="16" t="s">
         <v>36</v>
@@ -8350,9 +8447,9 @@
         <v>4.9299999999999995E-4</v>
       </c>
     </row>
-    <row r="63" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A63" s="13" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="B63" s="16" t="s">
         <v>41</v>
@@ -8442,9 +8539,9 @@
         <v>-1.2E-4</v>
       </c>
     </row>
-    <row r="64" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A64" s="13" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="B64" s="16" t="s">
         <v>42</v>
@@ -8534,9 +8631,9 @@
         <v>-1.7200000000000001E-4</v>
       </c>
     </row>
-    <row r="65" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A65" s="13" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="B65" s="16" t="s">
         <v>34</v>
@@ -8626,12 +8723,12 @@
         <v>5.3000000000000001E-5</v>
       </c>
     </row>
-    <row r="66" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A66" s="13" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="B66" s="16" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="C66" s="15">
         <v>21.653051000000001</v>
@@ -8718,12 +8815,12 @@
         <v>-1.15E-4</v>
       </c>
     </row>
-    <row r="67" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A67" s="13" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="B67" s="16" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="C67" s="15">
         <v>21.50902</v>
@@ -8810,9 +8907,9 @@
         <v>4.3300000000000001E-4</v>
       </c>
     </row>
-    <row r="68" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A68" s="13" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="B68" s="16" t="s">
         <v>43</v>
@@ -8902,12 +8999,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A69" s="13" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="B69" s="16" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="C69" s="15">
         <v>19.285844999999998</v>
@@ -8994,9 +9091,9 @@
         <v>-1.8799999999999999E-4</v>
       </c>
     </row>
-    <row r="70" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A70" s="13" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="B70" s="16" t="s">
         <v>37</v>
@@ -9086,9 +9183,9 @@
         <v>3.8170000000000001E-3</v>
       </c>
     </row>
-    <row r="71" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A71" s="13" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="B71" s="16" t="s">
         <v>38</v>
@@ -9178,9 +9275,9 @@
         <v>-2.5330000000000001E-3</v>
       </c>
     </row>
-    <row r="72" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A72" s="13" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="B72" s="16" t="s">
         <v>44</v>
@@ -9270,9 +9367,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A73" s="13" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="B73" s="16" t="s">
         <v>45</v>
@@ -9362,12 +9459,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A75" s="13" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="B75" s="12" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="C75" s="11">
         <v>3412</v>
@@ -9454,68 +9551,68 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:30" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="77" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B77" s="202" t="s">
-        <v>70</v>
-      </c>
-      <c r="C77" s="202"/>
-      <c r="D77" s="202"/>
-      <c r="E77" s="202"/>
-      <c r="F77" s="202"/>
-      <c r="G77" s="202"/>
-      <c r="H77" s="202"/>
-      <c r="I77" s="202"/>
-      <c r="J77" s="202"/>
-      <c r="K77" s="202"/>
-      <c r="L77" s="202"/>
-      <c r="M77" s="202"/>
-      <c r="N77" s="202"/>
-      <c r="O77" s="202"/>
-      <c r="P77" s="202"/>
-      <c r="Q77" s="202"/>
-      <c r="R77" s="202"/>
-      <c r="S77" s="202"/>
-      <c r="T77" s="202"/>
-      <c r="U77" s="202"/>
-      <c r="V77" s="202"/>
-      <c r="W77" s="202"/>
-      <c r="X77" s="202"/>
-      <c r="Y77" s="202"/>
-      <c r="Z77" s="202"/>
-      <c r="AA77" s="202"/>
-      <c r="AB77" s="202"/>
-      <c r="AC77" s="202"/>
-      <c r="AD77" s="202"/>
-    </row>
-    <row r="78" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:30" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="77" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B77" s="203" t="s">
+        <v>63</v>
+      </c>
+      <c r="C77" s="203"/>
+      <c r="D77" s="203"/>
+      <c r="E77" s="203"/>
+      <c r="F77" s="203"/>
+      <c r="G77" s="203"/>
+      <c r="H77" s="203"/>
+      <c r="I77" s="203"/>
+      <c r="J77" s="203"/>
+      <c r="K77" s="203"/>
+      <c r="L77" s="203"/>
+      <c r="M77" s="203"/>
+      <c r="N77" s="203"/>
+      <c r="O77" s="203"/>
+      <c r="P77" s="203"/>
+      <c r="Q77" s="203"/>
+      <c r="R77" s="203"/>
+      <c r="S77" s="203"/>
+      <c r="T77" s="203"/>
+      <c r="U77" s="203"/>
+      <c r="V77" s="203"/>
+      <c r="W77" s="203"/>
+      <c r="X77" s="203"/>
+      <c r="Y77" s="203"/>
+      <c r="Z77" s="203"/>
+      <c r="AA77" s="203"/>
+      <c r="AB77" s="203"/>
+      <c r="AC77" s="203"/>
+      <c r="AD77" s="203"/>
+    </row>
+    <row r="78" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B78" s="9" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="79" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="79" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B79" s="9" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="80" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="80" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B80" s="9" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="81" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="81" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B81" s="9" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="82" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="82" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B82" s="9" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="83" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="83" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B83" s="9" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
     </row>
   </sheetData>
@@ -9533,96 +9630,96 @@
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="33.140625" style="27" customWidth="1"/>
-    <col min="2" max="2" width="13.42578125" style="27" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.5703125" style="27" customWidth="1"/>
-    <col min="4" max="4" width="12.85546875" style="27" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.42578125" style="27" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.28515625" style="27" customWidth="1"/>
-    <col min="7" max="7" width="13.42578125" style="27" customWidth="1"/>
-    <col min="8" max="8" width="12.7109375" style="27" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.7109375" style="27" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.140625" style="27"/>
-    <col min="11" max="11" width="10.42578125" style="27" customWidth="1"/>
-    <col min="12" max="12" width="12.42578125" style="27" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="9.140625" style="27"/>
-    <col min="15" max="15" width="12.85546875" style="27" bestFit="1" customWidth="1"/>
-    <col min="16" max="18" width="9.140625" style="27"/>
-    <col min="19" max="19" width="10.42578125" style="27" customWidth="1"/>
-    <col min="20" max="22" width="9.140625" style="27"/>
-    <col min="23" max="23" width="10.7109375" style="27" customWidth="1"/>
-    <col min="24" max="16384" width="9.140625" style="27"/>
+    <col min="1" max="1" width="33.1796875" style="27" customWidth="1"/>
+    <col min="2" max="2" width="13.453125" style="27" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.54296875" style="27" customWidth="1"/>
+    <col min="4" max="4" width="12.81640625" style="27" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.453125" style="27" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.26953125" style="27" customWidth="1"/>
+    <col min="7" max="7" width="13.453125" style="27" customWidth="1"/>
+    <col min="8" max="8" width="12.7265625" style="27" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.7265625" style="27" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.1796875" style="27"/>
+    <col min="11" max="11" width="10.453125" style="27" customWidth="1"/>
+    <col min="12" max="12" width="12.453125" style="27" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="9.1796875" style="27"/>
+    <col min="15" max="15" width="12.81640625" style="27" bestFit="1" customWidth="1"/>
+    <col min="16" max="18" width="9.1796875" style="27"/>
+    <col min="19" max="19" width="10.453125" style="27" customWidth="1"/>
+    <col min="20" max="22" width="9.1796875" style="27"/>
+    <col min="23" max="23" width="10.7265625" style="27" customWidth="1"/>
+    <col min="24" max="16384" width="9.1796875" style="27"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="26" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.25">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="2" spans="1:23" ht="15" x14ac:dyDescent="0.25">
       <c r="A2" s="28" t="s">
-        <v>152</v>
+        <v>141</v>
       </c>
     </row>
     <row r="3" spans="1:23" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="29" t="s">
-        <v>153</v>
+        <v>142</v>
       </c>
       <c r="B3" s="30" t="s">
-        <v>154</v>
+        <v>143</v>
       </c>
       <c r="C3" s="31"/>
       <c r="D3" s="31"/>
       <c r="E3" s="32" t="s">
-        <v>155</v>
+        <v>144</v>
       </c>
       <c r="F3" s="32" t="s">
-        <v>156</v>
+        <v>145</v>
       </c>
       <c r="G3" s="32" t="s">
-        <v>157</v>
+        <v>146</v>
       </c>
       <c r="H3" s="33" t="s">
-        <v>157</v>
+        <v>146</v>
       </c>
       <c r="I3" s="34"/>
     </row>
     <row r="4" spans="1:23" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A4" s="35"/>
       <c r="B4" s="36" t="s">
-        <v>330</v>
+        <v>319</v>
       </c>
       <c r="C4" s="37" t="s">
-        <v>158</v>
+        <v>147</v>
       </c>
       <c r="D4" s="37" t="s">
-        <v>159</v>
+        <v>148</v>
       </c>
       <c r="E4" s="37"/>
       <c r="F4" s="37" t="s">
-        <v>160</v>
+        <v>149</v>
       </c>
       <c r="G4" s="37" t="s">
-        <v>161</v>
+        <v>150</v>
       </c>
       <c r="H4" s="38" t="s">
-        <v>162</v>
+        <v>151</v>
       </c>
       <c r="I4" s="39" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="5" spans="1:23" ht="15" x14ac:dyDescent="0.25">
       <c r="A5" s="40" t="s">
-        <v>164</v>
+        <v>153</v>
       </c>
       <c r="B5" s="41">
         <v>1</v>
       </c>
       <c r="C5" s="42" t="s">
-        <v>165</v>
+        <v>154</v>
       </c>
       <c r="D5" s="42"/>
       <c r="E5" s="43"/>
@@ -9631,21 +9728,21 @@
       <c r="H5" s="44"/>
       <c r="I5" s="45"/>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:23" ht="15" x14ac:dyDescent="0.25">
       <c r="A6" s="46" t="s">
-        <v>166</v>
+        <v>155</v>
       </c>
       <c r="B6" s="47" t="s">
-        <v>167</v>
+        <v>156</v>
       </c>
       <c r="C6" s="48" t="s">
-        <v>167</v>
+        <v>156</v>
       </c>
       <c r="D6" s="48" t="s">
-        <v>167</v>
+        <v>156</v>
       </c>
       <c r="E6" s="48" t="s">
-        <v>168</v>
+        <v>157</v>
       </c>
       <c r="F6" s="49"/>
       <c r="G6" s="49"/>
@@ -9656,9 +9753,9 @@
       <c r="T6" s="52"/>
       <c r="V6" s="52"/>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:23" ht="15" x14ac:dyDescent="0.25">
       <c r="A7" s="53" t="s">
-        <v>169</v>
+        <v>158</v>
       </c>
       <c r="B7" s="54">
         <v>129670</v>
@@ -9693,9 +9790,9 @@
       <c r="V7" s="60"/>
       <c r="W7" s="60"/>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:23" ht="15" x14ac:dyDescent="0.25">
       <c r="A8" s="53" t="s">
-        <v>170</v>
+        <v>159</v>
       </c>
       <c r="B8" s="54">
         <v>135084.91292306196</v>
@@ -9730,9 +9827,9 @@
       <c r="V8" s="60"/>
       <c r="W8" s="60"/>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:23" ht="15" x14ac:dyDescent="0.25">
       <c r="A9" s="53" t="s">
-        <v>171</v>
+        <v>160</v>
       </c>
       <c r="B9" s="54">
         <v>152370.90134048002</v>
@@ -9767,9 +9864,9 @@
       <c r="V9" s="60"/>
       <c r="W9" s="60"/>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:23" ht="15" x14ac:dyDescent="0.25">
       <c r="A10" s="53" t="s">
-        <v>172</v>
+        <v>161</v>
       </c>
       <c r="B10" s="54">
         <v>152370.90134048002</v>
@@ -9800,9 +9897,9 @@
       <c r="V10" s="60"/>
       <c r="W10" s="60"/>
     </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:23" ht="15" x14ac:dyDescent="0.25">
       <c r="A11" s="53" t="s">
-        <v>173</v>
+        <v>162</v>
       </c>
       <c r="B11" s="54">
         <v>145194.18901496602</v>
@@ -9841,9 +9938,9 @@
       <c r="V11" s="60"/>
       <c r="W11" s="60"/>
     </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:23" ht="15" x14ac:dyDescent="0.25">
       <c r="A12" s="53" t="s">
-        <v>174</v>
+        <v>163</v>
       </c>
       <c r="B12" s="54">
         <v>128448.52692210001</v>
@@ -9878,9 +9975,9 @@
       <c r="R12" s="60"/>
       <c r="S12" s="60"/>
     </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:23" ht="15" x14ac:dyDescent="0.25">
       <c r="A13" s="27" t="s">
-        <v>175</v>
+        <v>164</v>
       </c>
       <c r="B13" s="54">
         <v>125600.90733399388</v>
@@ -9907,9 +10004,9 @@
         <v>0.93726057101554028</v>
       </c>
     </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:23" ht="15" x14ac:dyDescent="0.25">
       <c r="A14" s="27" t="s">
-        <v>176</v>
+        <v>165</v>
       </c>
       <c r="B14" s="54">
         <v>122492.60888766299</v>
@@ -9936,9 +10033,9 @@
         <v>0.93726057101554017</v>
       </c>
     </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:23" ht="15" x14ac:dyDescent="0.25">
       <c r="A15" s="53" t="s">
-        <v>177</v>
+        <v>166</v>
       </c>
       <c r="B15" s="54">
         <v>116090</v>
@@ -9974,9 +10071,9 @@
       <c r="V15" s="70"/>
       <c r="W15" s="66"/>
     </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:23" ht="15" x14ac:dyDescent="0.25">
       <c r="A16" s="53" t="s">
-        <v>178</v>
+        <v>167</v>
       </c>
       <c r="B16" s="54">
         <v>112193.52</v>
@@ -10008,9 +10105,9 @@
       <c r="V16" s="70"/>
       <c r="W16" s="66"/>
     </row>
-    <row r="17" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:23" ht="15" x14ac:dyDescent="0.25">
       <c r="A17" s="53" t="s">
-        <v>179</v>
+        <v>168</v>
       </c>
       <c r="B17" s="54">
         <v>112193.52</v>
@@ -10046,9 +10143,9 @@
       <c r="V17" s="70"/>
       <c r="W17" s="66"/>
     </row>
-    <row r="18" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:23" ht="15" x14ac:dyDescent="0.25">
       <c r="A18" s="53" t="s">
-        <v>180</v>
+        <v>169</v>
       </c>
       <c r="B18" s="54">
         <v>106150</v>
@@ -10080,9 +10177,9 @@
       <c r="V18" s="70"/>
       <c r="W18" s="66"/>
     </row>
-    <row r="19" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:23" ht="15" x14ac:dyDescent="0.25">
       <c r="A19" s="53" t="s">
-        <v>181</v>
+        <v>170</v>
       </c>
       <c r="B19" s="54">
         <v>100186</v>
@@ -10114,9 +10211,9 @@
       <c r="M19" s="70"/>
       <c r="N19" s="66"/>
     </row>
-    <row r="20" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:23" ht="15" x14ac:dyDescent="0.25">
       <c r="A20" s="72" t="s">
-        <v>331</v>
+        <v>320</v>
       </c>
       <c r="B20" s="54">
         <v>128450</v>
@@ -10145,9 +10242,9 @@
       <c r="O20" s="60"/>
       <c r="W20" s="66"/>
     </row>
-    <row r="21" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:23" ht="15" x14ac:dyDescent="0.25">
       <c r="A21" s="73" t="s">
-        <v>182</v>
+        <v>171</v>
       </c>
       <c r="B21" s="54"/>
       <c r="C21" s="63"/>
@@ -10162,9 +10259,9 @@
       </c>
       <c r="I21" s="59"/>
     </row>
-    <row r="22" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:23" ht="15" x14ac:dyDescent="0.25">
       <c r="A22" s="53" t="s">
-        <v>183</v>
+        <v>172</v>
       </c>
       <c r="B22" s="54">
         <v>128450</v>
@@ -10191,9 +10288,9 @@
         <v>0.93499781627602274</v>
       </c>
     </row>
-    <row r="23" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:23" ht="15" x14ac:dyDescent="0.25">
       <c r="A23" s="53" t="s">
-        <v>184</v>
+        <v>173</v>
       </c>
       <c r="B23" s="54">
         <v>129487.84757606639</v>
@@ -10220,9 +10317,9 @@
         <v>0.93499781627602274</v>
       </c>
     </row>
-    <row r="24" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:23" ht="15" x14ac:dyDescent="0.25">
       <c r="A24" s="53" t="s">
-        <v>185</v>
+        <v>174</v>
       </c>
       <c r="B24" s="54">
         <v>116920</v>
@@ -10249,9 +10346,9 @@
         <v>0.93476175247841387</v>
       </c>
     </row>
-    <row r="25" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:23" ht="15" x14ac:dyDescent="0.25">
       <c r="A25" s="75" t="s">
-        <v>186</v>
+        <v>175</v>
       </c>
       <c r="B25" s="54">
         <v>124307.03423937227</v>
@@ -10278,9 +10375,9 @@
         <v>0.93500003751584637</v>
       </c>
     </row>
-    <row r="26" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:23" ht="15" x14ac:dyDescent="0.25">
       <c r="A26" s="76" t="s">
-        <v>187</v>
+        <v>176</v>
       </c>
       <c r="B26" s="54">
         <v>123041.23110601204</v>
@@ -10307,9 +10404,9 @@
         <v>0.93500003751584626</v>
       </c>
     </row>
-    <row r="27" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:23" ht="15" x14ac:dyDescent="0.25">
       <c r="A27" s="76" t="s">
-        <v>188</v>
+        <v>177</v>
       </c>
       <c r="B27" s="54">
         <v>111520</v>
@@ -10336,9 +10433,9 @@
         <v>0.93135126106564226</v>
       </c>
     </row>
-    <row r="28" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:23" ht="15" x14ac:dyDescent="0.25">
       <c r="A28" s="76" t="s">
-        <v>189</v>
+        <v>178</v>
       </c>
       <c r="B28" s="54">
         <v>140352.52220119376</v>
@@ -10366,9 +10463,9 @@
       </c>
       <c r="J28" s="78"/>
     </row>
-    <row r="29" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:23" ht="15" x14ac:dyDescent="0.25">
       <c r="A29" s="76" t="s">
-        <v>190</v>
+        <v>179</v>
       </c>
       <c r="B29" s="54">
         <v>140352.52220119376</v>
@@ -10395,9 +10492,9 @@
         <v>0.93499781627602263</v>
       </c>
     </row>
-    <row r="30" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:23" ht="15" x14ac:dyDescent="0.25">
       <c r="A30" s="76" t="s">
-        <v>191</v>
+        <v>180</v>
       </c>
       <c r="B30" s="54">
         <v>57250</v>
@@ -10424,9 +10521,9 @@
         <v>0.87806748466257667</v>
       </c>
     </row>
-    <row r="31" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:23" ht="15" x14ac:dyDescent="0.25">
       <c r="A31" s="76" t="s">
-        <v>192</v>
+        <v>181</v>
       </c>
       <c r="B31" s="54">
         <v>76330</v>
@@ -10454,9 +10551,9 @@
       </c>
       <c r="J31" s="78"/>
     </row>
-    <row r="32" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:23" ht="15" x14ac:dyDescent="0.25">
       <c r="A32" s="76" t="s">
-        <v>193</v>
+        <v>182</v>
       </c>
       <c r="B32" s="54">
         <v>99837</v>
@@ -10483,9 +10580,9 @@
         <v>0.92051300964428628</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11" ht="15" x14ac:dyDescent="0.25">
       <c r="A33" s="76" t="s">
-        <v>194</v>
+        <v>183</v>
       </c>
       <c r="B33" s="54">
         <v>83127</v>
@@ -10513,9 +10610,9 @@
       </c>
       <c r="J33" s="78"/>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11" ht="15" x14ac:dyDescent="0.25">
       <c r="A34" s="76" t="s">
-        <v>195</v>
+        <v>184</v>
       </c>
       <c r="B34" s="54">
         <v>116090</v>
@@ -10542,9 +10639,9 @@
         <v>0.93364967025896739</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11" ht="15" x14ac:dyDescent="0.25">
       <c r="A35" s="76" t="s">
-        <v>196</v>
+        <v>185</v>
       </c>
       <c r="B35" s="54">
         <v>84950</v>
@@ -10572,9 +10669,9 @@
       </c>
       <c r="J35" s="78"/>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11" ht="15" x14ac:dyDescent="0.25">
       <c r="A36" s="76" t="s">
-        <v>197</v>
+        <v>186</v>
       </c>
       <c r="B36" s="54">
         <v>74720</v>
@@ -10602,9 +10699,9 @@
       </c>
       <c r="J36" s="78"/>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11" ht="15" x14ac:dyDescent="0.25">
       <c r="A37" s="76" t="s">
-        <v>198</v>
+        <v>187</v>
       </c>
       <c r="B37" s="54">
         <v>68930</v>
@@ -10632,9 +10729,9 @@
       </c>
       <c r="J37" s="78"/>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11" ht="15" x14ac:dyDescent="0.25">
       <c r="A38" s="76" t="s">
-        <v>199</v>
+        <v>188</v>
       </c>
       <c r="B38" s="54">
         <v>72200</v>
@@ -10662,9 +10759,9 @@
       </c>
       <c r="J38" s="78"/>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:11" ht="15" x14ac:dyDescent="0.25">
       <c r="A39" s="76" t="s">
-        <v>200</v>
+        <v>189</v>
       </c>
       <c r="B39" s="54">
         <v>119550</v>
@@ -10693,9 +10790,9 @@
       <c r="J39" s="78"/>
       <c r="K39" s="78"/>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A40" s="76" t="s">
-        <v>201</v>
+        <v>190</v>
       </c>
       <c r="B40" s="54">
         <v>123670</v>
@@ -10724,9 +10821,9 @@
       <c r="J40" s="78"/>
       <c r="K40" s="78"/>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A41" s="76" t="s">
-        <v>202</v>
+        <v>191</v>
       </c>
       <c r="B41" s="54">
         <v>117059</v>
@@ -10754,9 +10851,9 @@
       </c>
       <c r="K41" s="78"/>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A42" s="75" t="s">
-        <v>203</v>
+        <v>192</v>
       </c>
       <c r="B42" s="54">
         <v>122887</v>
@@ -10784,9 +10881,9 @@
       </c>
       <c r="K42" s="78"/>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A43" s="75" t="s">
-        <v>204</v>
+        <v>193</v>
       </c>
       <c r="B43" s="54">
         <v>123542.426446789</v>
@@ -10814,9 +10911,9 @@
       </c>
       <c r="K43" s="78"/>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A44" s="76" t="s">
-        <v>205</v>
+        <v>194</v>
       </c>
       <c r="B44" s="54">
         <v>115983</v>
@@ -10844,9 +10941,9 @@
       </c>
       <c r="K44" s="78"/>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A45" s="27" t="s">
-        <v>206</v>
+        <v>195</v>
       </c>
       <c r="B45" s="54">
         <v>111560</v>
@@ -10873,9 +10970,9 @@
         <v>0.93361506882395551</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A46" s="76" t="s">
-        <v>207</v>
+        <v>196</v>
       </c>
       <c r="B46" s="54">
         <v>119776.6214942081</v>
@@ -10903,9 +11000,9 @@
       </c>
       <c r="K46" s="78"/>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A47" s="53" t="s">
-        <v>208</v>
+        <v>197</v>
       </c>
       <c r="B47" s="54">
         <v>30500</v>
@@ -10932,9 +11029,9 @@
         <v>0.84675180455302612</v>
       </c>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A48" s="53" t="s">
-        <v>209</v>
+        <v>198</v>
       </c>
       <c r="B48" s="54">
         <v>93540</v>
@@ -10961,9 +11058,9 @@
         <v>0.92494808662118067</v>
       </c>
     </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A49" s="53" t="s">
-        <v>210</v>
+        <v>199</v>
       </c>
       <c r="B49" s="54">
         <v>96720</v>
@@ -10991,9 +11088,9 @@
       </c>
       <c r="J49" s="78"/>
     </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A50" s="53" t="s">
-        <v>211</v>
+        <v>200</v>
       </c>
       <c r="B50" s="54">
         <v>100480</v>
@@ -11021,9 +11118,9 @@
       </c>
       <c r="J50" s="78"/>
     </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A51" s="53" t="s">
-        <v>212</v>
+        <v>201</v>
       </c>
       <c r="B51" s="54">
         <v>94970</v>
@@ -11051,9 +11148,9 @@
       </c>
       <c r="J51" s="78"/>
     </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A52" s="53" t="s">
-        <v>213</v>
+        <v>202</v>
       </c>
       <c r="B52" s="54">
         <v>90060</v>
@@ -11081,9 +11178,9 @@
       </c>
       <c r="J52" s="78"/>
     </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A53" s="53" t="s">
-        <v>214</v>
+        <v>203</v>
       </c>
       <c r="B53" s="54">
         <v>95720</v>
@@ -11111,9 +11208,9 @@
       </c>
       <c r="J53" s="78"/>
     </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A54" s="53" t="s">
-        <v>215</v>
+        <v>204</v>
       </c>
       <c r="B54" s="54">
         <v>84250</v>
@@ -11141,9 +11238,9 @@
       </c>
       <c r="J54" s="78"/>
     </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A55" s="53" t="s">
-        <v>216</v>
+        <v>205</v>
       </c>
       <c r="B55" s="54">
         <v>83686.11202275462</v>
@@ -11169,9 +11266,9 @@
       </c>
       <c r="J55" s="78"/>
     </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A56" s="72" t="s">
-        <v>217</v>
+        <v>206</v>
       </c>
       <c r="B56" s="54">
         <v>105124.8</v>
@@ -11198,9 +11295,9 @@
         <v>0.93722267739953979</v>
       </c>
     </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A57" s="53" t="s">
-        <v>218</v>
+        <v>207</v>
       </c>
       <c r="B57" s="54">
         <v>128590</v>
@@ -11223,32 +11320,32 @@
         <v>0.9001119977600448</v>
       </c>
     </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A58" s="46" t="s">
-        <v>219</v>
+        <v>208</v>
       </c>
       <c r="B58" s="87" t="s">
-        <v>220</v>
+        <v>209</v>
       </c>
       <c r="C58" s="88" t="s">
-        <v>220</v>
+        <v>209</v>
       </c>
       <c r="D58" s="88" t="s">
-        <v>220</v>
+        <v>209</v>
       </c>
       <c r="E58" s="88" t="s">
-        <v>221</v>
+        <v>210</v>
       </c>
       <c r="F58" s="89"/>
       <c r="G58" s="90"/>
       <c r="H58" s="91"/>
       <c r="I58" s="92" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.25">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="59" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A59" s="53" t="s">
-        <v>222</v>
+        <v>211</v>
       </c>
       <c r="B59" s="54">
         <v>983</v>
@@ -11275,9 +11372,9 @@
         <v>0.90266299357208446</v>
       </c>
     </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A60" s="72" t="s">
-        <v>223</v>
+        <v>212</v>
       </c>
       <c r="B60" s="54">
         <v>962.18504920853229</v>
@@ -11304,9 +11401,9 @@
         <v>0.9009009009009008</v>
       </c>
     </row>
-    <row r="61" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A61" s="53" t="s">
-        <v>224</v>
+        <v>213</v>
       </c>
       <c r="B61" s="54">
         <v>290</v>
@@ -11334,9 +11431,9 @@
       </c>
       <c r="L61" s="52"/>
     </row>
-    <row r="62" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A62" s="53" t="s">
-        <v>225</v>
+        <v>214</v>
       </c>
       <c r="B62" s="54"/>
       <c r="C62" s="63"/>
@@ -11355,9 +11452,9 @@
       </c>
       <c r="I62" s="59"/>
     </row>
-    <row r="63" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A63" s="76" t="s">
-        <v>218</v>
+        <v>207</v>
       </c>
       <c r="B63" s="54">
         <v>982</v>
@@ -11384,31 +11481,31 @@
         <v>0.94084837950133815</v>
       </c>
     </row>
-    <row r="64" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A64" s="46" t="s">
-        <v>226</v>
+        <v>215</v>
       </c>
       <c r="B64" s="87" t="s">
-        <v>227</v>
+        <v>216</v>
       </c>
       <c r="C64" s="98" t="s">
-        <v>227</v>
+        <v>216</v>
       </c>
       <c r="D64" s="88" t="s">
-        <v>227</v>
+        <v>216</v>
       </c>
       <c r="E64" s="90"/>
       <c r="F64" s="89"/>
       <c r="G64" s="90"/>
       <c r="H64" s="91"/>
       <c r="I64" s="92" t="s">
-        <v>163</v>
+        <v>152</v>
       </c>
       <c r="K64" s="52"/>
     </row>
-    <row r="65" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A65" s="72" t="s">
-        <v>228</v>
+        <v>217</v>
       </c>
       <c r="B65" s="54">
         <v>19474169.219601419</v>
@@ -11431,9 +11528,9 @@
       </c>
       <c r="I65" s="59"/>
     </row>
-    <row r="66" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A66" s="73" t="s">
-        <v>229</v>
+        <v>218</v>
       </c>
       <c r="B66" s="54">
         <v>22639319.979813498</v>
@@ -11459,9 +11556,9 @@
       </c>
       <c r="K66" s="100"/>
     </row>
-    <row r="67" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A67" s="73" t="s">
-        <v>230</v>
+        <v>219</v>
       </c>
       <c r="B67" s="54">
         <v>16085444.010446707</v>
@@ -11487,9 +11584,9 @@
       </c>
       <c r="K67" s="100"/>
     </row>
-    <row r="68" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A68" s="73" t="s">
-        <v>231</v>
+        <v>220</v>
       </c>
       <c r="B68" s="54">
         <v>10805182.822031699</v>
@@ -11515,9 +11612,9 @@
       </c>
       <c r="K68" s="100"/>
     </row>
-    <row r="69" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A69" s="73" t="s">
-        <v>232</v>
+        <v>221</v>
       </c>
       <c r="B69" s="54">
         <v>22639319.979813498</v>
@@ -11543,9 +11640,9 @@
       </c>
       <c r="K69" s="100"/>
     </row>
-    <row r="70" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A70" s="73" t="s">
-        <v>233</v>
+        <v>222</v>
       </c>
       <c r="B70" s="54">
         <v>9945646.340310514</v>
@@ -11572,9 +11669,9 @@
       <c r="K70" s="100"/>
       <c r="M70" s="78"/>
     </row>
-    <row r="71" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A71" s="76" t="s">
-        <v>234</v>
+        <v>223</v>
       </c>
       <c r="B71" s="54">
         <v>26949428.734871496</v>
@@ -11601,9 +11698,9 @@
       <c r="K71" s="100"/>
       <c r="L71" s="100"/>
     </row>
-    <row r="72" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A72" s="75" t="s">
-        <v>235</v>
+        <v>224</v>
       </c>
       <c r="B72" s="54">
         <v>26664354.295994278</v>
@@ -11629,9 +11726,9 @@
       </c>
       <c r="K72" s="100"/>
     </row>
-    <row r="73" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A73" s="53" t="s">
-        <v>236</v>
+        <v>225</v>
       </c>
       <c r="B73" s="54">
         <v>24599421.97472629</v>
@@ -11656,9 +11753,9 @@
         <v>0.95793372635732044</v>
       </c>
     </row>
-    <row r="74" spans="1:13" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:13" ht="12.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A74" s="53" t="s">
-        <v>237</v>
+        <v>226</v>
       </c>
       <c r="B74" s="54">
         <v>15396000</v>
@@ -11684,9 +11781,9 @@
       </c>
       <c r="K74" s="102"/>
     </row>
-    <row r="75" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A75" s="53" t="s">
-        <v>238</v>
+        <v>227</v>
       </c>
       <c r="B75" s="54">
         <v>15929000</v>
@@ -11712,9 +11809,9 @@
       </c>
       <c r="K75" s="102"/>
     </row>
-    <row r="76" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A76" s="53" t="s">
-        <v>239</v>
+        <v>228</v>
       </c>
       <c r="B76" s="54">
         <v>14447000</v>
@@ -11739,9 +11836,9 @@
         <v>0.92710004492074694</v>
       </c>
     </row>
-    <row r="77" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A77" s="75" t="s">
-        <v>240</v>
+        <v>229</v>
       </c>
       <c r="B77" s="54">
         <v>15342000</v>
@@ -11768,9 +11865,9 @@
       <c r="J77" s="60"/>
       <c r="K77" s="103"/>
     </row>
-    <row r="78" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A78" s="76" t="s">
-        <v>241</v>
+        <v>230</v>
       </c>
       <c r="B78" s="54">
         <v>14716000</v>
@@ -11796,9 +11893,9 @@
       </c>
       <c r="K78" s="102"/>
     </row>
-    <row r="79" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A79" s="76" t="s">
-        <v>242</v>
+        <v>231</v>
       </c>
       <c r="B79" s="54">
         <v>17289000</v>
@@ -11823,9 +11920,9 @@
         <v>0.96554227633195577</v>
       </c>
     </row>
-    <row r="80" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A80" s="76" t="s">
-        <v>243</v>
+        <v>232</v>
       </c>
       <c r="B80" s="54">
         <v>14999999.999999998</v>
@@ -11846,9 +11943,9 @@
       </c>
       <c r="I80" s="59"/>
     </row>
-    <row r="81" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A81" s="76" t="s">
-        <v>244</v>
+        <v>233</v>
       </c>
       <c r="B81" s="54">
         <v>13454048.892850777</v>
@@ -11869,9 +11966,9 @@
         <v>0.85292563033160751</v>
       </c>
     </row>
-    <row r="82" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A82" s="76" t="s">
-        <v>245</v>
+        <v>234</v>
       </c>
       <c r="B82" s="54">
         <v>12381771.311916806</v>
@@ -11892,9 +11989,9 @@
         <v>0.88047037071579148</v>
       </c>
     </row>
-    <row r="83" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A83" s="104" t="s">
-        <v>246</v>
+        <v>235</v>
       </c>
       <c r="B83" s="54">
         <v>18916910.5715716</v>
@@ -11919,9 +12016,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="84" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A84" s="108" t="s">
-        <v>247</v>
+        <v>236</v>
       </c>
       <c r="B84" s="63">
         <v>12781599.343864119</v>
@@ -11946,9 +12043,9 @@
         <v>0.90447216306662592</v>
       </c>
     </row>
-    <row r="85" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A85" s="108" t="s">
-        <v>248</v>
+        <v>237</v>
       </c>
       <c r="B85" s="63">
         <v>14409931.248165678</v>
@@ -11973,9 +12070,9 @@
         <v>0.94150280898876404</v>
       </c>
     </row>
-    <row r="86" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A86" s="108" t="s">
-        <v>249</v>
+        <v>238</v>
       </c>
       <c r="B86" s="63">
         <v>14409931.248165678</v>
@@ -12000,9 +12097,9 @@
         <v>0.94150280898876404</v>
       </c>
     </row>
-    <row r="87" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A87" s="111" t="s">
-        <v>250</v>
+        <v>239</v>
       </c>
       <c r="B87" s="63">
         <v>11209638.734587256</v>
@@ -12027,9 +12124,9 @@
         <v>0.8252427184466018</v>
       </c>
     </row>
-    <row r="88" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A88" s="112" t="s">
-        <v>251</v>
+        <v>240</v>
       </c>
       <c r="B88" s="113">
         <v>14155275.214870876</v>
@@ -12054,7 +12151,7 @@
         <v>0.87681159420289856</v>
       </c>
     </row>
-    <row r="89" spans="1:14" s="78" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:14" s="78" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B89" s="63"/>
       <c r="C89" s="118"/>
       <c r="D89" s="118"/>
@@ -12064,9 +12161,9 @@
       <c r="H89" s="106"/>
       <c r="I89" s="121"/>
     </row>
-    <row r="90" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A90" s="28" t="s">
-        <v>252</v>
+        <v>241</v>
       </c>
       <c r="B90" s="122"/>
       <c r="C90" s="122"/>
@@ -12074,9 +12171,9 @@
       <c r="E90" s="122"/>
       <c r="F90" s="122"/>
     </row>
-    <row r="91" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A91" s="78" t="s">
-        <v>253</v>
+        <v>242</v>
       </c>
       <c r="B91" s="122"/>
       <c r="C91" s="122"/>
@@ -12084,53 +12181,53 @@
       <c r="E91" s="122"/>
       <c r="F91" s="122"/>
     </row>
-    <row r="92" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A92" s="123" t="s">
-        <v>254</v>
+        <v>243</v>
       </c>
       <c r="B92" s="124" t="s">
-        <v>255</v>
+        <v>244</v>
       </c>
       <c r="C92" s="125" t="s">
-        <v>255</v>
+        <v>244</v>
       </c>
       <c r="D92" s="125" t="s">
-        <v>255</v>
+        <v>244</v>
       </c>
       <c r="E92" s="125" t="s">
-        <v>256</v>
+        <v>245</v>
       </c>
       <c r="F92" s="125" t="s">
-        <v>256</v>
+        <v>245</v>
       </c>
       <c r="G92" s="126" t="s">
-        <v>257</v>
+        <v>246</v>
       </c>
       <c r="H92" s="126" t="s">
-        <v>257</v>
+        <v>246</v>
       </c>
       <c r="I92" s="126" t="s">
-        <v>258</v>
+        <v>247</v>
       </c>
       <c r="J92" s="126" t="s">
-        <v>258</v>
+        <v>247</v>
       </c>
       <c r="K92" s="126" t="s">
-        <v>259</v>
+        <v>248</v>
       </c>
       <c r="L92" s="126" t="s">
-        <v>259</v>
+        <v>248</v>
       </c>
       <c r="M92" s="126" t="s">
-        <v>260</v>
+        <v>249</v>
       </c>
       <c r="N92" s="127" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="93" spans="1:14" x14ac:dyDescent="0.25">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="93" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A93" s="128" t="s">
-        <v>261</v>
+        <v>250</v>
       </c>
       <c r="B93" s="129">
         <v>100</v>
@@ -12172,9 +12269,9 @@
         <v>20</v>
       </c>
     </row>
-    <row r="94" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A94" s="132" t="s">
-        <v>262</v>
+        <v>251</v>
       </c>
       <c r="B94" s="133">
         <v>1</v>
@@ -12216,9 +12313,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="95" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A95" s="132" t="s">
-        <v>263</v>
+        <v>252</v>
       </c>
       <c r="B95" s="133">
         <v>30</v>
@@ -12260,9 +12357,9 @@
         <v>63</v>
       </c>
     </row>
-    <row r="96" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A96" s="135" t="s">
-        <v>264</v>
+        <v>253</v>
       </c>
       <c r="B96" s="136">
         <v>265</v>
@@ -12304,7 +12401,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A97" s="140"/>
       <c r="B97" s="66"/>
       <c r="C97" s="78"/>
@@ -12313,9 +12410,9 @@
       <c r="F97" s="78"/>
       <c r="I97" s="78"/>
     </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A98" s="141" t="s">
-        <v>265</v>
+        <v>254</v>
       </c>
       <c r="B98" s="66"/>
       <c r="C98" s="78"/>
@@ -12324,33 +12421,33 @@
       <c r="F98" s="78"/>
       <c r="I98" s="78"/>
     </row>
-    <row r="99" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A99" s="142" t="s">
-        <v>266</v>
+        <v>255</v>
       </c>
       <c r="B99" s="143" t="s">
-        <v>267</v>
+        <v>256</v>
       </c>
       <c r="C99" s="144" t="s">
-        <v>267</v>
+        <v>256</v>
       </c>
       <c r="D99" s="144" t="s">
-        <v>268</v>
+        <v>257</v>
       </c>
       <c r="E99" s="144" t="s">
-        <v>268</v>
+        <v>257</v>
       </c>
       <c r="F99" s="144" t="s">
-        <v>269</v>
+        <v>258</v>
       </c>
       <c r="G99" s="145" t="s">
-        <v>269</v>
+        <v>258</v>
       </c>
       <c r="I99" s="78"/>
     </row>
-    <row r="100" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A100" s="128" t="s">
-        <v>261</v>
+        <v>250</v>
       </c>
       <c r="B100" s="129">
         <v>100</v>
@@ -12370,9 +12467,9 @@
       </c>
       <c r="I100" s="78"/>
     </row>
-    <row r="101" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A101" s="132" t="s">
-        <v>270</v>
+        <v>259</v>
       </c>
       <c r="B101" s="133">
         <v>0</v>
@@ -12393,9 +12490,9 @@
         <v>7.5</v>
       </c>
     </row>
-    <row r="102" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A102" s="132" t="s">
-        <v>271</v>
+        <v>260</v>
       </c>
       <c r="B102" s="133">
         <v>0</v>
@@ -12416,9 +12513,9 @@
         <v>4.9000000000000004</v>
       </c>
     </row>
-    <row r="103" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A103" s="132" t="s">
-        <v>272</v>
+        <v>261</v>
       </c>
       <c r="B103" s="133">
         <v>0</v>
@@ -12439,9 +12536,9 @@
         <v>-87</v>
       </c>
     </row>
-    <row r="104" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A104" s="132" t="s">
-        <v>273</v>
+        <v>262</v>
       </c>
       <c r="B104" s="133">
         <v>0</v>
@@ -12462,9 +12559,9 @@
         <v>920</v>
       </c>
     </row>
-    <row r="105" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A105" s="135" t="s">
-        <v>274</v>
+        <v>263</v>
       </c>
       <c r="B105" s="136">
         <v>0</v>
@@ -12485,64 +12582,64 @@
         <v>-71</v>
       </c>
     </row>
-    <row r="107" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A107" s="28" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="108" spans="1:9" x14ac:dyDescent="0.25">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="108" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A108" s="123" t="s">
-        <v>276</v>
+        <v>265</v>
       </c>
       <c r="B108" s="150">
         <v>0.85</v>
       </c>
     </row>
-    <row r="109" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A109" s="132" t="s">
-        <v>277</v>
+        <v>266</v>
       </c>
       <c r="B109" s="151">
         <v>0.42857142857142855</v>
       </c>
       <c r="F109" s="78"/>
     </row>
-    <row r="110" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A110" s="132" t="s">
-        <v>278</v>
+        <v>267</v>
       </c>
       <c r="B110" s="151">
         <v>0.75</v>
       </c>
     </row>
-    <row r="111" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A111" s="132" t="s">
-        <v>279</v>
+        <v>268</v>
       </c>
       <c r="B111" s="151">
         <v>0.27272727272727271</v>
       </c>
     </row>
-    <row r="112" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A112" s="135" t="s">
-        <v>280</v>
+        <v>269</v>
       </c>
       <c r="B112" s="152">
         <v>0.5</v>
       </c>
     </row>
-    <row r="114" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A114" s="153" t="s">
-        <v>281</v>
+        <v>270</v>
       </c>
       <c r="B114" s="78"/>
       <c r="C114" s="78"/>
       <c r="D114" s="78"/>
     </row>
-    <row r="115" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A115" s="78"/>
     </row>
-    <row r="116" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:24" x14ac:dyDescent="0.35">
       <c r="B116" s="154">
         <v>25.5</v>
       </c>
@@ -12562,7 +12659,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="117" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:24" x14ac:dyDescent="0.35">
       <c r="B117" s="157">
         <v>25.5</v>
       </c>
@@ -12582,63 +12679,63 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="118" spans="1:24" ht="64.5" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:24" ht="65.5" x14ac:dyDescent="0.35">
       <c r="B118" s="160" t="s">
-        <v>282</v>
+        <v>271</v>
       </c>
       <c r="C118" s="161" t="s">
-        <v>283</v>
+        <v>272</v>
       </c>
       <c r="D118" s="162" t="s">
-        <v>284</v>
+        <v>273</v>
       </c>
       <c r="F118" s="160" t="s">
-        <v>282</v>
+        <v>271</v>
       </c>
       <c r="G118" s="161" t="s">
-        <v>285</v>
+        <v>274</v>
       </c>
       <c r="H118" s="162" t="s">
-        <v>284</v>
+        <v>273</v>
       </c>
       <c r="J118" s="160" t="s">
-        <v>282</v>
+        <v>271</v>
       </c>
       <c r="K118" s="163" t="s">
-        <v>286</v>
+        <v>275</v>
       </c>
       <c r="L118" s="162" t="s">
-        <v>284</v>
+        <v>273</v>
       </c>
       <c r="N118" s="160" t="s">
-        <v>282</v>
+        <v>271</v>
       </c>
       <c r="O118" s="163" t="s">
-        <v>287</v>
+        <v>276</v>
       </c>
       <c r="P118" s="162" t="s">
-        <v>284</v>
+        <v>273</v>
       </c>
       <c r="R118" s="160" t="s">
-        <v>282</v>
+        <v>271</v>
       </c>
       <c r="S118" s="163" t="s">
-        <v>288</v>
+        <v>277</v>
       </c>
       <c r="T118" s="162" t="s">
-        <v>284</v>
+        <v>273</v>
       </c>
       <c r="V118" s="160" t="s">
-        <v>282</v>
+        <v>271</v>
       </c>
       <c r="W118" s="163" t="s">
-        <v>289</v>
+        <v>278</v>
       </c>
       <c r="X118" s="162" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="119" spans="1:24" s="78" customFormat="1" x14ac:dyDescent="0.25">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="119" spans="1:24" s="78" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B119" s="164">
         <v>1990</v>
       </c>
@@ -12694,7 +12791,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="120" spans="1:24" s="78" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:24" s="78" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B120" s="167">
         <v>1995</v>
       </c>
@@ -12750,7 +12847,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="121" spans="1:24" s="78" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:24" s="78" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B121" s="167">
         <v>2000</v>
       </c>
@@ -12806,7 +12903,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="122" spans="1:24" s="78" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:24" s="78" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B122" s="167">
         <v>2005</v>
       </c>
@@ -12862,7 +12959,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="123" spans="1:24" s="78" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:24" s="78" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B123" s="167">
         <v>2010</v>
       </c>
@@ -12918,7 +13015,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="124" spans="1:24" s="78" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:24" s="78" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B124" s="167">
         <v>2015</v>
       </c>
@@ -12974,7 +13071,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="125" spans="1:24" s="78" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:24" s="78" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B125" s="167">
         <v>2017</v>
       </c>
@@ -13030,7 +13127,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="126" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:24" x14ac:dyDescent="0.35">
       <c r="B126" s="173">
         <v>2020</v>
       </c>
@@ -13041,36 +13138,36 @@
         <v>0.39215686274509803</v>
       </c>
     </row>
-    <row r="128" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A128" s="153" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="129" spans="1:9" x14ac:dyDescent="0.25">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="129" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A129" s="176" t="s">
-        <v>291</v>
+        <v>280</v>
       </c>
       <c r="B129" s="177" t="s">
-        <v>292</v>
+        <v>281</v>
       </c>
       <c r="C129" s="177" t="s">
-        <v>293</v>
+        <v>282</v>
       </c>
       <c r="D129" s="177" t="s">
-        <v>294</v>
+        <v>283</v>
       </c>
       <c r="E129" s="177" t="s">
-        <v>295</v>
+        <v>284</v>
       </c>
       <c r="F129" s="178" t="s">
-        <v>296</v>
+        <v>285</v>
       </c>
       <c r="G129" s="179"/>
       <c r="H129" s="179"/>
     </row>
-    <row r="130" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A130" s="180" t="s">
-        <v>297</v>
+        <v>286</v>
       </c>
       <c r="B130" s="181">
         <v>1</v>
@@ -13090,9 +13187,9 @@
       <c r="G130" s="179"/>
       <c r="H130" s="179"/>
     </row>
-    <row r="131" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A131" s="180" t="s">
-        <v>298</v>
+        <v>287</v>
       </c>
       <c r="B131" s="184">
         <v>1E-3</v>
@@ -13112,9 +13209,9 @@
       <c r="G131" s="179"/>
       <c r="H131" s="179"/>
     </row>
-    <row r="132" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A132" s="180" t="s">
-        <v>299</v>
+        <v>288</v>
       </c>
       <c r="B132" s="184">
         <v>9.9999999999999995E-7</v>
@@ -13134,9 +13231,9 @@
       <c r="G132" s="179"/>
       <c r="H132" s="179"/>
     </row>
-    <row r="133" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A133" s="180" t="s">
-        <v>300</v>
+        <v>289</v>
       </c>
       <c r="B133" s="184">
         <v>2.2046226218487759E-3</v>
@@ -13156,9 +13253,9 @@
       <c r="G133" s="179"/>
       <c r="H133" s="179"/>
     </row>
-    <row r="134" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A134" s="186" t="s">
-        <v>301</v>
+        <v>290</v>
       </c>
       <c r="B134" s="187">
         <v>1.102311310924388E-6</v>
@@ -13178,7 +13275,7 @@
       <c r="G134" s="179"/>
       <c r="H134" s="179"/>
     </row>
-    <row r="135" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A135" s="179"/>
       <c r="B135" s="179"/>
       <c r="C135" s="179"/>
@@ -13188,31 +13285,31 @@
       <c r="G135" s="179"/>
       <c r="H135" s="179"/>
     </row>
-    <row r="136" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A136" s="176" t="s">
-        <v>302</v>
+        <v>291</v>
       </c>
       <c r="B136" s="177" t="s">
-        <v>303</v>
+        <v>292</v>
       </c>
       <c r="C136" s="177" t="s">
-        <v>304</v>
+        <v>293</v>
       </c>
       <c r="D136" s="177" t="s">
-        <v>305</v>
+        <v>294</v>
       </c>
       <c r="E136" s="177" t="s">
-        <v>306</v>
+        <v>295</v>
       </c>
       <c r="F136" s="178" t="s">
-        <v>307</v>
+        <v>296</v>
       </c>
       <c r="G136" s="179"/>
       <c r="H136" s="179"/>
     </row>
-    <row r="137" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A137" s="180" t="s">
-        <v>308</v>
+        <v>297</v>
       </c>
       <c r="B137" s="190">
         <v>1</v>
@@ -13232,9 +13329,9 @@
       <c r="G137" s="179"/>
       <c r="H137" s="179"/>
     </row>
-    <row r="138" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A138" s="180" t="s">
-        <v>309</v>
+        <v>298</v>
       </c>
       <c r="B138" s="181">
         <v>1000000</v>
@@ -13254,9 +13351,9 @@
       <c r="G138" s="179"/>
       <c r="H138" s="179"/>
     </row>
-    <row r="139" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A139" s="180" t="s">
-        <v>310</v>
+        <v>299</v>
       </c>
       <c r="B139" s="181">
         <v>1000</v>
@@ -13276,9 +13373,9 @@
       <c r="G139" s="179"/>
       <c r="H139" s="179"/>
     </row>
-    <row r="140" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A140" s="180" t="s">
-        <v>311</v>
+        <v>300</v>
       </c>
       <c r="B140" s="168">
         <v>264.17210707106841</v>
@@ -13298,9 +13395,9 @@
       <c r="G140" s="179"/>
       <c r="H140" s="179"/>
     </row>
-    <row r="141" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A141" s="186" t="s">
-        <v>312</v>
+        <v>301</v>
       </c>
       <c r="B141" s="174">
         <v>35.314666212661322</v>
@@ -13320,7 +13417,7 @@
       <c r="G141" s="179"/>
       <c r="H141" s="179"/>
     </row>
-    <row r="142" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A142" s="179"/>
       <c r="B142" s="179"/>
       <c r="C142" s="179"/>
@@ -13330,38 +13427,38 @@
       <c r="G142" s="179"/>
       <c r="H142" s="179"/>
     </row>
-    <row r="143" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A143" s="176" t="s">
-        <v>313</v>
+        <v>302</v>
       </c>
       <c r="B143" s="177" t="s">
-        <v>314</v>
+        <v>303</v>
       </c>
       <c r="C143" s="177" t="s">
-        <v>315</v>
+        <v>304</v>
       </c>
       <c r="D143" s="177" t="s">
-        <v>316</v>
+        <v>305</v>
       </c>
       <c r="E143" s="177" t="s">
-        <v>317</v>
+        <v>306</v>
       </c>
       <c r="F143" s="177" t="s">
-        <v>318</v>
+        <v>307</v>
       </c>
       <c r="G143" s="177" t="s">
-        <v>319</v>
+        <v>308</v>
       </c>
       <c r="H143" s="177" t="s">
-        <v>320</v>
+        <v>309</v>
       </c>
       <c r="I143" s="195" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="144" spans="1:9" x14ac:dyDescent="0.25">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="144" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A144" s="180" t="s">
-        <v>322</v>
+        <v>311</v>
       </c>
       <c r="B144" s="181">
         <v>1</v>
@@ -13388,9 +13485,9 @@
         <v>2684519.5376862194</v>
       </c>
     </row>
-    <row r="145" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A145" s="180" t="s">
-        <v>323</v>
+        <v>312</v>
       </c>
       <c r="B145" s="182">
         <v>1E-3</v>
@@ -13417,9 +13514,9 @@
         <v>2684.5195376862198</v>
       </c>
     </row>
-    <row r="146" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A146" s="180" t="s">
-        <v>324</v>
+        <v>313</v>
       </c>
       <c r="B146" s="184">
         <v>9.9999999999999995E-7</v>
@@ -13446,9 +13543,9 @@
         <v>2.6845195376862194</v>
       </c>
     </row>
-    <row r="147" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A147" s="180" t="s">
-        <v>325</v>
+        <v>314</v>
       </c>
       <c r="B147" s="184">
         <v>2.7777777777777778E-4</v>
@@ -13475,9 +13572,9 @@
         <v>745.69987157950538</v>
       </c>
     </row>
-    <row r="148" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A148" s="180" t="s">
-        <v>326</v>
+        <v>315</v>
       </c>
       <c r="B148" s="197">
         <v>2.7777777777777776E-7</v>
@@ -13504,9 +13601,9 @@
         <v>0.74569987157950535</v>
       </c>
     </row>
-    <row r="149" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A149" s="180" t="s">
-        <v>327</v>
+        <v>316</v>
       </c>
       <c r="B149" s="184">
         <v>9.4781712266701337E-4</v>
@@ -13533,9 +13630,9 @@
         <v>2544.4335839531336</v>
       </c>
     </row>
-    <row r="150" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A150" s="180" t="s">
-        <v>328</v>
+        <v>317</v>
       </c>
       <c r="B150" s="198">
         <v>9.4781712266701324E-10</v>
@@ -13562,9 +13659,9 @@
         <v>2.5444335839531337E-3</v>
       </c>
     </row>
-    <row r="151" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A151" s="200" t="s">
-        <v>329</v>
+        <v>318</v>
       </c>
       <c r="B151" s="138">
         <v>3.72506136E-7</v>
@@ -13623,11 +13720,11 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="39.7109375" style="2" customWidth="1"/>
-    <col min="2" max="37" width="10.140625" style="6" customWidth="1"/>
-    <col min="38" max="16384" width="9.140625" style="2"/>
+    <col min="1" max="1" width="39.7265625" style="2" customWidth="1"/>
+    <col min="2" max="37" width="10.1796875" style="6" customWidth="1"/>
+    <col min="38" max="16384" width="9.1796875" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:37" x14ac:dyDescent="0.25">
@@ -13745,7 +13842,7 @@
     </row>
     <row r="2" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>149</v>
+        <v>338</v>
       </c>
       <c r="B2" s="6">
         <f>'AEO Table 73'!D65*10^12</f>
@@ -13906,11 +14003,11 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="39.7109375" style="2" customWidth="1"/>
-    <col min="2" max="37" width="11.28515625" style="2" customWidth="1"/>
-    <col min="38" max="16384" width="9.140625" style="2"/>
+    <col min="1" max="1" width="39.7265625" style="2" customWidth="1"/>
+    <col min="2" max="37" width="11.26953125" style="2" customWidth="1"/>
+    <col min="38" max="16384" width="9.1796875" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:37" x14ac:dyDescent="0.25">
@@ -14028,7 +14125,7 @@
     </row>
     <row r="2" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>59</v>
+        <v>342</v>
       </c>
       <c r="B2" s="7">
         <f>'AEO Table 73'!D53*10^15</f>
@@ -14189,10 +14286,10 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="39.7109375" customWidth="1"/>
-    <col min="2" max="37" width="11.85546875" customWidth="1"/>
+    <col min="1" max="1" width="43.90625" customWidth="1"/>
+    <col min="2" max="37" width="11.81640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:37" x14ac:dyDescent="0.25">
@@ -14310,7 +14407,7 @@
     </row>
     <row r="2" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="B2" s="6">
         <v>0</v>
@@ -14433,7 +14530,7 @@
     </row>
     <row r="3" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="B3" s="6">
         <v>0</v>
@@ -14556,7 +14653,7 @@
     </row>
     <row r="4" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>50</v>
+        <v>348</v>
       </c>
       <c r="B4" s="5">
         <f>'AEO Table 73'!D32*10^12</f>
@@ -14705,7 +14802,7 @@
     </row>
     <row r="5" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>51</v>
+        <v>349</v>
       </c>
       <c r="B5" s="5">
         <f>'AEO Table 73'!D19*10^12</f>
@@ -14854,7 +14951,7 @@
     </row>
     <row r="6" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>52</v>
+        <v>350</v>
       </c>
       <c r="B6" s="5">
         <f>'AEO Table 73'!D29*10^12</f>
@@ -15003,7 +15100,7 @@
     </row>
     <row r="7" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>53</v>
+        <v>351</v>
       </c>
       <c r="B7" s="5">
         <f>'AEO Table 73'!D18*10^12</f>
@@ -15152,7 +15249,7 @@
     </row>
     <row r="8" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>54</v>
+        <v>352</v>
       </c>
       <c r="B8" s="5">
         <f>'AEO Table 73'!D30*10^12</f>
@@ -15313,11 +15410,11 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="39.7109375" style="2" customWidth="1"/>
-    <col min="2" max="37" width="10.140625" style="6" customWidth="1"/>
-    <col min="38" max="16384" width="9.140625" style="2"/>
+    <col min="1" max="1" width="39.7265625" style="2" customWidth="1"/>
+    <col min="2" max="37" width="10.1796875" style="6" customWidth="1"/>
+    <col min="38" max="16384" width="9.1796875" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:37" x14ac:dyDescent="0.25">
@@ -15435,7 +15532,7 @@
     </row>
     <row r="2" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>150</v>
+        <v>339</v>
       </c>
       <c r="B2" s="25">
         <f>'GREET1 Fuel_Specs'!$D$68</f>
@@ -15580,6 +15677,1078 @@
       <c r="AK2" s="25">
         <f>'GREET1 Fuel_Specs'!$D$68</f>
         <v>12992301.9717196</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor theme="3"/>
+  </sheetPr>
+  <dimension ref="A1:AK8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="38.26953125" customWidth="1"/>
+    <col min="2" max="37" width="11" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:37" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B1" s="2">
+        <v>2015</v>
+      </c>
+      <c r="C1" s="2">
+        <v>2016</v>
+      </c>
+      <c r="D1" s="2">
+        <v>2017</v>
+      </c>
+      <c r="E1" s="2">
+        <v>2018</v>
+      </c>
+      <c r="F1" s="2">
+        <v>2019</v>
+      </c>
+      <c r="G1" s="2">
+        <v>2020</v>
+      </c>
+      <c r="H1" s="2">
+        <v>2021</v>
+      </c>
+      <c r="I1" s="2">
+        <v>2022</v>
+      </c>
+      <c r="J1" s="2">
+        <v>2023</v>
+      </c>
+      <c r="K1" s="2">
+        <v>2024</v>
+      </c>
+      <c r="L1" s="2">
+        <v>2025</v>
+      </c>
+      <c r="M1" s="2">
+        <v>2026</v>
+      </c>
+      <c r="N1" s="2">
+        <v>2027</v>
+      </c>
+      <c r="O1" s="2">
+        <v>2028</v>
+      </c>
+      <c r="P1" s="2">
+        <v>2029</v>
+      </c>
+      <c r="Q1" s="2">
+        <v>2030</v>
+      </c>
+      <c r="R1" s="2">
+        <v>2031</v>
+      </c>
+      <c r="S1" s="2">
+        <v>2032</v>
+      </c>
+      <c r="T1" s="2">
+        <v>2033</v>
+      </c>
+      <c r="U1" s="2">
+        <v>2034</v>
+      </c>
+      <c r="V1" s="2">
+        <v>2035</v>
+      </c>
+      <c r="W1" s="2">
+        <v>2036</v>
+      </c>
+      <c r="X1" s="2">
+        <v>2037</v>
+      </c>
+      <c r="Y1" s="2">
+        <v>2038</v>
+      </c>
+      <c r="Z1" s="2">
+        <v>2039</v>
+      </c>
+      <c r="AA1" s="2">
+        <v>2040</v>
+      </c>
+      <c r="AB1" s="6">
+        <v>2041</v>
+      </c>
+      <c r="AC1" s="6">
+        <v>2042</v>
+      </c>
+      <c r="AD1" s="6">
+        <v>2043</v>
+      </c>
+      <c r="AE1" s="6">
+        <v>2044</v>
+      </c>
+      <c r="AF1" s="6">
+        <v>2045</v>
+      </c>
+      <c r="AG1" s="6">
+        <v>2046</v>
+      </c>
+      <c r="AH1" s="6">
+        <v>2047</v>
+      </c>
+      <c r="AI1" s="6">
+        <v>2048</v>
+      </c>
+      <c r="AJ1" s="6">
+        <v>2049</v>
+      </c>
+      <c r="AK1" s="6">
+        <v>2050</v>
+      </c>
+    </row>
+    <row r="2" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>330</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2" s="2">
+        <v>0</v>
+      </c>
+      <c r="D2" s="2">
+        <v>0</v>
+      </c>
+      <c r="E2" s="2">
+        <v>0</v>
+      </c>
+      <c r="F2" s="2">
+        <v>0</v>
+      </c>
+      <c r="G2" s="2">
+        <v>0</v>
+      </c>
+      <c r="H2" s="2">
+        <v>0</v>
+      </c>
+      <c r="I2" s="2">
+        <v>0</v>
+      </c>
+      <c r="J2" s="2">
+        <v>0</v>
+      </c>
+      <c r="K2" s="2">
+        <v>0</v>
+      </c>
+      <c r="L2" s="2">
+        <v>0</v>
+      </c>
+      <c r="M2" s="2">
+        <v>0</v>
+      </c>
+      <c r="N2" s="2">
+        <v>0</v>
+      </c>
+      <c r="O2" s="2">
+        <v>0</v>
+      </c>
+      <c r="P2" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q2" s="2">
+        <v>0</v>
+      </c>
+      <c r="R2" s="2">
+        <v>0</v>
+      </c>
+      <c r="S2" s="2">
+        <v>0</v>
+      </c>
+      <c r="T2" s="2">
+        <v>0</v>
+      </c>
+      <c r="U2" s="2">
+        <v>0</v>
+      </c>
+      <c r="V2" s="2">
+        <v>0</v>
+      </c>
+      <c r="W2" s="2">
+        <v>0</v>
+      </c>
+      <c r="X2" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y2" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z2" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA2" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB2" s="6">
+        <f>TREND($R2:$AA2,$R$1:$AA$1,AB$1)</f>
+        <v>0</v>
+      </c>
+      <c r="AC2" s="6">
+        <f t="shared" ref="AC2:AK8" si="0">TREND($R2:$AA2,$R$1:$AA$1,AC$1)</f>
+        <v>0</v>
+      </c>
+      <c r="AD2" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AE2" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AF2" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AG2" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AH2" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AI2" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AJ2" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AK2" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>331</v>
+      </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3" s="2">
+        <v>0</v>
+      </c>
+      <c r="D3" s="2">
+        <v>0</v>
+      </c>
+      <c r="E3" s="2">
+        <v>0</v>
+      </c>
+      <c r="F3" s="2">
+        <v>0</v>
+      </c>
+      <c r="G3" s="2">
+        <v>0</v>
+      </c>
+      <c r="H3" s="2">
+        <v>0</v>
+      </c>
+      <c r="I3" s="2">
+        <v>0</v>
+      </c>
+      <c r="J3" s="2">
+        <v>0</v>
+      </c>
+      <c r="K3" s="2">
+        <v>0</v>
+      </c>
+      <c r="L3" s="2">
+        <v>0</v>
+      </c>
+      <c r="M3" s="2">
+        <v>0</v>
+      </c>
+      <c r="N3" s="2">
+        <v>0</v>
+      </c>
+      <c r="O3" s="2">
+        <v>0</v>
+      </c>
+      <c r="P3" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q3" s="2">
+        <v>0</v>
+      </c>
+      <c r="R3" s="2">
+        <v>0</v>
+      </c>
+      <c r="S3" s="2">
+        <v>0</v>
+      </c>
+      <c r="T3" s="2">
+        <v>0</v>
+      </c>
+      <c r="U3" s="2">
+        <v>0</v>
+      </c>
+      <c r="V3" s="2">
+        <v>0</v>
+      </c>
+      <c r="W3" s="2">
+        <v>0</v>
+      </c>
+      <c r="X3" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y3" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z3" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA3" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB3" s="6">
+        <f t="shared" ref="AB3:AB7" si="1">TREND($R3:$AA3,$R$1:$AA$1,AB$1)</f>
+        <v>0</v>
+      </c>
+      <c r="AC3" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AD3" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AE3" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AF3" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AG3" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AH3" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AI3" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AJ3" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AK3" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>353</v>
+      </c>
+      <c r="B4" s="7">
+        <f>'AEO Table 73'!D32*10^6/gal_per_barrel</f>
+        <v>120396.26190476191</v>
+      </c>
+      <c r="C4" s="7">
+        <f>'AEO Table 73'!E32*10^6/gal_per_barrel</f>
+        <v>120396.26190476191</v>
+      </c>
+      <c r="D4" s="7">
+        <f>'AEO Table 73'!F32*10^6/gal_per_barrel</f>
+        <v>120396.26190476191</v>
+      </c>
+      <c r="E4" s="7">
+        <f>'AEO Table 73'!G32*10^6/gal_per_barrel</f>
+        <v>120396.26190476191</v>
+      </c>
+      <c r="F4" s="7">
+        <f>'AEO Table 73'!H32*10^6/gal_per_barrel</f>
+        <v>120396.26190476191</v>
+      </c>
+      <c r="G4" s="7">
+        <f>'AEO Table 73'!I32*10^6/gal_per_barrel</f>
+        <v>120396.26190476191</v>
+      </c>
+      <c r="H4" s="7">
+        <f>'AEO Table 73'!J32*10^6/gal_per_barrel</f>
+        <v>120396.26190476191</v>
+      </c>
+      <c r="I4" s="7">
+        <f>'AEO Table 73'!K32*10^6/gal_per_barrel</f>
+        <v>120396.26190476191</v>
+      </c>
+      <c r="J4" s="7">
+        <f>'AEO Table 73'!L32*10^6/gal_per_barrel</f>
+        <v>120396.26190476191</v>
+      </c>
+      <c r="K4" s="7">
+        <f>'AEO Table 73'!M32*10^6/gal_per_barrel</f>
+        <v>120396.26190476191</v>
+      </c>
+      <c r="L4" s="7">
+        <f>'AEO Table 73'!N32*10^6/gal_per_barrel</f>
+        <v>120365.45238095238</v>
+      </c>
+      <c r="M4" s="7">
+        <f>'AEO Table 73'!O32*10^6/gal_per_barrel</f>
+        <v>120329.23809523809</v>
+      </c>
+      <c r="N4" s="7">
+        <f>'AEO Table 73'!P32*10^6/gal_per_barrel</f>
+        <v>120291.97619047618</v>
+      </c>
+      <c r="O4" s="7">
+        <f>'AEO Table 73'!Q32*10^6/gal_per_barrel</f>
+        <v>120273.76190476191</v>
+      </c>
+      <c r="P4" s="7">
+        <f>'AEO Table 73'!R32*10^6/gal_per_barrel</f>
+        <v>120252.40476190476</v>
+      </c>
+      <c r="Q4" s="7">
+        <f>'AEO Table 73'!S32*10^6/gal_per_barrel</f>
+        <v>120227.28571428571</v>
+      </c>
+      <c r="R4" s="7">
+        <f>'AEO Table 73'!T32*10^6/gal_per_barrel</f>
+        <v>120197.78571428571</v>
+      </c>
+      <c r="S4" s="7">
+        <f>'AEO Table 73'!U32*10^6/gal_per_barrel</f>
+        <v>120163.14285714286</v>
+      </c>
+      <c r="T4" s="7">
+        <f>'AEO Table 73'!V32*10^6/gal_per_barrel</f>
+        <v>120122.45238095238</v>
+      </c>
+      <c r="U4" s="7">
+        <f>'AEO Table 73'!W32*10^6/gal_per_barrel</f>
+        <v>120074.64285714286</v>
+      </c>
+      <c r="V4" s="7">
+        <f>'AEO Table 73'!X32*10^6/gal_per_barrel</f>
+        <v>120018.47619047618</v>
+      </c>
+      <c r="W4" s="7">
+        <f>'AEO Table 73'!Y32*10^6/gal_per_barrel</f>
+        <v>119952.47619047618</v>
+      </c>
+      <c r="X4" s="7">
+        <f>'AEO Table 73'!Z32*10^6/gal_per_barrel</f>
+        <v>119875</v>
+      </c>
+      <c r="Y4" s="7">
+        <f>'AEO Table 73'!AA32*10^6/gal_per_barrel</f>
+        <v>119784</v>
+      </c>
+      <c r="Z4" s="7">
+        <f>'AEO Table 73'!AB32*10^6/gal_per_barrel</f>
+        <v>119677.07142857143</v>
+      </c>
+      <c r="AA4" s="7">
+        <f>'AEO Table 73'!AC32*10^6/gal_per_barrel</f>
+        <v>119551.5</v>
+      </c>
+      <c r="AB4" s="7">
+        <f t="shared" si="1"/>
+        <v>119555.77936507939</v>
+      </c>
+      <c r="AC4" s="7">
+        <f t="shared" si="0"/>
+        <v>119485.62020202022</v>
+      </c>
+      <c r="AD4" s="7">
+        <f t="shared" si="0"/>
+        <v>119415.46103896105</v>
+      </c>
+      <c r="AE4" s="7">
+        <f t="shared" si="0"/>
+        <v>119345.3018759019</v>
+      </c>
+      <c r="AF4" s="7">
+        <f t="shared" si="0"/>
+        <v>119275.14271284273</v>
+      </c>
+      <c r="AG4" s="7">
+        <f t="shared" si="0"/>
+        <v>119204.98354978356</v>
+      </c>
+      <c r="AH4" s="7">
+        <f t="shared" si="0"/>
+        <v>119134.82438672442</v>
+      </c>
+      <c r="AI4" s="7">
+        <f t="shared" si="0"/>
+        <v>119064.66522366524</v>
+      </c>
+      <c r="AJ4" s="7">
+        <f t="shared" si="0"/>
+        <v>118994.50606060607</v>
+      </c>
+      <c r="AK4" s="7">
+        <f t="shared" si="0"/>
+        <v>118924.34689754693</v>
+      </c>
+    </row>
+    <row r="5" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>354</v>
+      </c>
+      <c r="B5" s="7">
+        <f>'AEO Table 73'!D22*10^6/gal_per_barrel</f>
+        <v>137562</v>
+      </c>
+      <c r="C5" s="7">
+        <f>'AEO Table 73'!E22*10^6/gal_per_barrel</f>
+        <v>137543.97619047618</v>
+      </c>
+      <c r="D5" s="7">
+        <f>'AEO Table 73'!F22*10^6/gal_per_barrel</f>
+        <v>137531.5</v>
+      </c>
+      <c r="E5" s="7">
+        <f>'AEO Table 73'!G22*10^6/gal_per_barrel</f>
+        <v>137497.83333333334</v>
+      </c>
+      <c r="F5" s="7">
+        <f>'AEO Table 73'!H22*10^6/gal_per_barrel</f>
+        <v>137481.88095238095</v>
+      </c>
+      <c r="G5" s="7">
+        <f>'AEO Table 73'!I22*10^6/gal_per_barrel</f>
+        <v>137464.42857142858</v>
+      </c>
+      <c r="H5" s="7">
+        <f>'AEO Table 73'!J22*10^6/gal_per_barrel</f>
+        <v>137446.57142857142</v>
+      </c>
+      <c r="I5" s="7">
+        <f>'AEO Table 73'!K22*10^6/gal_per_barrel</f>
+        <v>137424.40476190476</v>
+      </c>
+      <c r="J5" s="7">
+        <f>'AEO Table 73'!L22*10^6/gal_per_barrel</f>
+        <v>137401.57142857142</v>
+      </c>
+      <c r="K5" s="7">
+        <f>'AEO Table 73'!M22*10^6/gal_per_barrel</f>
+        <v>137423.92857142858</v>
+      </c>
+      <c r="L5" s="7">
+        <f>'AEO Table 73'!N22*10^6/gal_per_barrel</f>
+        <v>137423.66666666666</v>
+      </c>
+      <c r="M5" s="7">
+        <f>'AEO Table 73'!O22*10^6/gal_per_barrel</f>
+        <v>137450.26190476189</v>
+      </c>
+      <c r="N5" s="7">
+        <f>'AEO Table 73'!P22*10^6/gal_per_barrel</f>
+        <v>137463.38095238095</v>
+      </c>
+      <c r="O5" s="7">
+        <f>'AEO Table 73'!Q22*10^6/gal_per_barrel</f>
+        <v>137445.14285714287</v>
+      </c>
+      <c r="P5" s="7">
+        <f>'AEO Table 73'!R22*10^6/gal_per_barrel</f>
+        <v>137469.11904761905</v>
+      </c>
+      <c r="Q5" s="7">
+        <f>'AEO Table 73'!S22*10^6/gal_per_barrel</f>
+        <v>137468.92857142858</v>
+      </c>
+      <c r="R5" s="7">
+        <f>'AEO Table 73'!T22*10^6/gal_per_barrel</f>
+        <v>137466.09523809524</v>
+      </c>
+      <c r="S5" s="7">
+        <f>'AEO Table 73'!U22*10^6/gal_per_barrel</f>
+        <v>137463.19047619047</v>
+      </c>
+      <c r="T5" s="7">
+        <f>'AEO Table 73'!V22*10^6/gal_per_barrel</f>
+        <v>137458.97619047618</v>
+      </c>
+      <c r="U5" s="7">
+        <f>'AEO Table 73'!W22*10^6/gal_per_barrel</f>
+        <v>137456.88095238095</v>
+      </c>
+      <c r="V5" s="7">
+        <f>'AEO Table 73'!X22*10^6/gal_per_barrel</f>
+        <v>137452.47619047618</v>
+      </c>
+      <c r="W5" s="7">
+        <f>'AEO Table 73'!Y22*10^6/gal_per_barrel</f>
+        <v>137454.33333333334</v>
+      </c>
+      <c r="X5" s="7">
+        <f>'AEO Table 73'!Z22*10^6/gal_per_barrel</f>
+        <v>137446.83333333334</v>
+      </c>
+      <c r="Y5" s="7">
+        <f>'AEO Table 73'!AA22*10^6/gal_per_barrel</f>
+        <v>137435.66666666666</v>
+      </c>
+      <c r="Z5" s="7">
+        <f>'AEO Table 73'!AB22*10^6/gal_per_barrel</f>
+        <v>137437.95238095237</v>
+      </c>
+      <c r="AA5" s="7">
+        <f>'AEO Table 73'!AC22*10^6/gal_per_barrel</f>
+        <v>137438.30952380953</v>
+      </c>
+      <c r="AB5" s="7">
+        <f t="shared" si="1"/>
+        <v>137432.01904761905</v>
+      </c>
+      <c r="AC5" s="7">
+        <f t="shared" si="0"/>
+        <v>137428.55497835498</v>
+      </c>
+      <c r="AD5" s="7">
+        <f t="shared" si="0"/>
+        <v>137425.09090909091</v>
+      </c>
+      <c r="AE5" s="7">
+        <f t="shared" si="0"/>
+        <v>137421.62683982684</v>
+      </c>
+      <c r="AF5" s="7">
+        <f t="shared" si="0"/>
+        <v>137418.16277056278</v>
+      </c>
+      <c r="AG5" s="7">
+        <f t="shared" si="0"/>
+        <v>137414.69870129871</v>
+      </c>
+      <c r="AH5" s="7">
+        <f t="shared" si="0"/>
+        <v>137411.23463203464</v>
+      </c>
+      <c r="AI5" s="7">
+        <f t="shared" si="0"/>
+        <v>137407.77056277057</v>
+      </c>
+      <c r="AJ5" s="7">
+        <f t="shared" si="0"/>
+        <v>137404.3064935065</v>
+      </c>
+      <c r="AK5" s="7">
+        <f t="shared" si="0"/>
+        <v>137400.84242424241</v>
+      </c>
+    </row>
+    <row r="6" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>332</v>
+      </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6" s="2">
+        <v>0</v>
+      </c>
+      <c r="D6" s="2">
+        <v>0</v>
+      </c>
+      <c r="E6" s="2">
+        <v>0</v>
+      </c>
+      <c r="F6" s="2">
+        <v>0</v>
+      </c>
+      <c r="G6" s="2">
+        <v>0</v>
+      </c>
+      <c r="H6" s="2">
+        <v>0</v>
+      </c>
+      <c r="I6" s="2">
+        <v>0</v>
+      </c>
+      <c r="J6" s="2">
+        <v>0</v>
+      </c>
+      <c r="K6" s="2">
+        <v>0</v>
+      </c>
+      <c r="L6" s="2">
+        <v>0</v>
+      </c>
+      <c r="M6" s="2">
+        <v>0</v>
+      </c>
+      <c r="N6" s="2">
+        <v>0</v>
+      </c>
+      <c r="O6" s="2">
+        <v>0</v>
+      </c>
+      <c r="P6" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q6" s="2">
+        <v>0</v>
+      </c>
+      <c r="R6" s="2">
+        <v>0</v>
+      </c>
+      <c r="S6" s="2">
+        <v>0</v>
+      </c>
+      <c r="T6" s="2">
+        <v>0</v>
+      </c>
+      <c r="U6" s="2">
+        <v>0</v>
+      </c>
+      <c r="V6" s="2">
+        <v>0</v>
+      </c>
+      <c r="W6" s="2">
+        <v>0</v>
+      </c>
+      <c r="X6" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y6" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z6" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA6" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB6" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AC6" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AD6" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AE6" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AF6" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AG6" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AH6" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AI6" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AJ6" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AK6" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>333</v>
+      </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7" s="2">
+        <v>0</v>
+      </c>
+      <c r="D7" s="2">
+        <v>0</v>
+      </c>
+      <c r="E7" s="2">
+        <v>0</v>
+      </c>
+      <c r="F7" s="2">
+        <v>0</v>
+      </c>
+      <c r="G7" s="2">
+        <v>0</v>
+      </c>
+      <c r="H7" s="2">
+        <v>0</v>
+      </c>
+      <c r="I7" s="2">
+        <v>0</v>
+      </c>
+      <c r="J7" s="2">
+        <v>0</v>
+      </c>
+      <c r="K7" s="2">
+        <v>0</v>
+      </c>
+      <c r="L7" s="2">
+        <v>0</v>
+      </c>
+      <c r="M7" s="2">
+        <v>0</v>
+      </c>
+      <c r="N7" s="2">
+        <v>0</v>
+      </c>
+      <c r="O7" s="2">
+        <v>0</v>
+      </c>
+      <c r="P7" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q7" s="2">
+        <v>0</v>
+      </c>
+      <c r="R7" s="2">
+        <v>0</v>
+      </c>
+      <c r="S7" s="2">
+        <v>0</v>
+      </c>
+      <c r="T7" s="2">
+        <v>0</v>
+      </c>
+      <c r="U7" s="2">
+        <v>0</v>
+      </c>
+      <c r="V7" s="2">
+        <v>0</v>
+      </c>
+      <c r="W7" s="2">
+        <v>0</v>
+      </c>
+      <c r="X7" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y7" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z7" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA7" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB7" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AC7" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AD7" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AE7" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AF7" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AG7" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AH7" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AI7" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AJ7" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AK7" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>355</v>
+      </c>
+      <c r="B8" s="7">
+        <f>'AEO Table 73'!D30*10^6/gal_per_barrel</f>
+        <v>135000</v>
+      </c>
+      <c r="C8" s="7">
+        <f>'AEO Table 73'!E30*10^6/gal_per_barrel</f>
+        <v>135000</v>
+      </c>
+      <c r="D8" s="7">
+        <f>'AEO Table 73'!F30*10^6/gal_per_barrel</f>
+        <v>135000</v>
+      </c>
+      <c r="E8" s="7">
+        <f>'AEO Table 73'!G30*10^6/gal_per_barrel</f>
+        <v>135000</v>
+      </c>
+      <c r="F8" s="7">
+        <f>'AEO Table 73'!H30*10^6/gal_per_barrel</f>
+        <v>135000</v>
+      </c>
+      <c r="G8" s="7">
+        <f>'AEO Table 73'!I30*10^6/gal_per_barrel</f>
+        <v>135000</v>
+      </c>
+      <c r="H8" s="7">
+        <f>'AEO Table 73'!J30*10^6/gal_per_barrel</f>
+        <v>135000</v>
+      </c>
+      <c r="I8" s="7">
+        <f>'AEO Table 73'!K30*10^6/gal_per_barrel</f>
+        <v>135000</v>
+      </c>
+      <c r="J8" s="7">
+        <f>'AEO Table 73'!L30*10^6/gal_per_barrel</f>
+        <v>135000</v>
+      </c>
+      <c r="K8" s="7">
+        <f>'AEO Table 73'!M30*10^6/gal_per_barrel</f>
+        <v>135000</v>
+      </c>
+      <c r="L8" s="7">
+        <f>'AEO Table 73'!N30*10^6/gal_per_barrel</f>
+        <v>135000</v>
+      </c>
+      <c r="M8" s="7">
+        <f>'AEO Table 73'!O30*10^6/gal_per_barrel</f>
+        <v>135000</v>
+      </c>
+      <c r="N8" s="7">
+        <f>'AEO Table 73'!P30*10^6/gal_per_barrel</f>
+        <v>135000</v>
+      </c>
+      <c r="O8" s="7">
+        <f>'AEO Table 73'!Q30*10^6/gal_per_barrel</f>
+        <v>135000</v>
+      </c>
+      <c r="P8" s="7">
+        <f>'AEO Table 73'!R30*10^6/gal_per_barrel</f>
+        <v>135000</v>
+      </c>
+      <c r="Q8" s="7">
+        <f>'AEO Table 73'!S30*10^6/gal_per_barrel</f>
+        <v>135000</v>
+      </c>
+      <c r="R8" s="7">
+        <f>'AEO Table 73'!T30*10^6/gal_per_barrel</f>
+        <v>135000</v>
+      </c>
+      <c r="S8" s="7">
+        <f>'AEO Table 73'!U30*10^6/gal_per_barrel</f>
+        <v>135000</v>
+      </c>
+      <c r="T8" s="7">
+        <f>'AEO Table 73'!V30*10^6/gal_per_barrel</f>
+        <v>135000</v>
+      </c>
+      <c r="U8" s="7">
+        <f>'AEO Table 73'!W30*10^6/gal_per_barrel</f>
+        <v>135000</v>
+      </c>
+      <c r="V8" s="7">
+        <f>'AEO Table 73'!X30*10^6/gal_per_barrel</f>
+        <v>135000</v>
+      </c>
+      <c r="W8" s="7">
+        <f>'AEO Table 73'!Y30*10^6/gal_per_barrel</f>
+        <v>135000</v>
+      </c>
+      <c r="X8" s="7">
+        <f>'AEO Table 73'!Z30*10^6/gal_per_barrel</f>
+        <v>135000</v>
+      </c>
+      <c r="Y8" s="7">
+        <f>'AEO Table 73'!AA30*10^6/gal_per_barrel</f>
+        <v>135000</v>
+      </c>
+      <c r="Z8" s="7">
+        <f>'AEO Table 73'!AB30*10^6/gal_per_barrel</f>
+        <v>135000</v>
+      </c>
+      <c r="AA8" s="7">
+        <f>'AEO Table 73'!AC30*10^6/gal_per_barrel</f>
+        <v>135000</v>
+      </c>
+      <c r="AB8" s="7">
+        <f>TREND($R8:$AA8,$R$1:$AA$1,AB$1)</f>
+        <v>135000</v>
+      </c>
+      <c r="AC8" s="7">
+        <f t="shared" si="0"/>
+        <v>135000</v>
+      </c>
+      <c r="AD8" s="7">
+        <f t="shared" si="0"/>
+        <v>135000</v>
+      </c>
+      <c r="AE8" s="7">
+        <f t="shared" si="0"/>
+        <v>135000</v>
+      </c>
+      <c r="AF8" s="7">
+        <f t="shared" si="0"/>
+        <v>135000</v>
+      </c>
+      <c r="AG8" s="7">
+        <f t="shared" si="0"/>
+        <v>135000</v>
+      </c>
+      <c r="AH8" s="7">
+        <f t="shared" si="0"/>
+        <v>135000</v>
+      </c>
+      <c r="AI8" s="7">
+        <f t="shared" si="0"/>
+        <v>135000</v>
+      </c>
+      <c r="AJ8" s="7">
+        <f t="shared" si="0"/>
+        <v>135000</v>
+      </c>
+      <c r="AK8" s="7">
+        <f t="shared" si="0"/>
+        <v>135000</v>
       </c>
     </row>
   </sheetData>

--- a/InputData/web-app/BCF/BTU Conversion Factors.xlsx
+++ b/InputData/web-app/BCF/BTU Conversion Factors.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Meghan\Documents\eps-us\InputData\web-app\BCF\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CodeRepositories\eps-us\InputData\web-app\BCF\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -3468,7 +3468,7 @@
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="211">
+  <cellXfs count="209">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -3867,11 +3867,9 @@
       <alignment horizontal="right" wrapText="1"/>
     </xf>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="19" xfId="55" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="63">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -4270,9 +4268,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C64"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -4636,7 +4632,7 @@
       <selection activeCell="C32" sqref="C32"/>
       <selection pane="topRight" activeCell="C32" sqref="C32"/>
       <selection pane="bottomLeft" activeCell="C32" sqref="C32"/>
-      <selection pane="bottomRight" activeCell="C32" sqref="C32"/>
+      <selection pane="bottomRight" activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -11275,44 +11271,44 @@
     </row>
     <row r="77" spans="1:37" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="78" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B78" s="209" t="s">
+      <c r="B78" s="208" t="s">
         <v>57</v>
       </c>
-      <c r="C78" s="209"/>
-      <c r="D78" s="209"/>
-      <c r="E78" s="209"/>
-      <c r="F78" s="209"/>
-      <c r="G78" s="209"/>
-      <c r="H78" s="209"/>
-      <c r="I78" s="209"/>
-      <c r="J78" s="209"/>
-      <c r="K78" s="209"/>
-      <c r="L78" s="209"/>
-      <c r="M78" s="209"/>
-      <c r="N78" s="209"/>
-      <c r="O78" s="209"/>
-      <c r="P78" s="209"/>
-      <c r="Q78" s="209"/>
-      <c r="R78" s="209"/>
-      <c r="S78" s="209"/>
-      <c r="T78" s="209"/>
-      <c r="U78" s="209"/>
-      <c r="V78" s="209"/>
-      <c r="W78" s="209"/>
-      <c r="X78" s="209"/>
-      <c r="Y78" s="209"/>
-      <c r="Z78" s="209"/>
-      <c r="AA78" s="209"/>
-      <c r="AB78" s="209"/>
-      <c r="AC78" s="209"/>
-      <c r="AD78" s="209"/>
-      <c r="AE78" s="209"/>
-      <c r="AF78" s="209"/>
-      <c r="AG78" s="209"/>
-      <c r="AH78" s="209"/>
-      <c r="AI78" s="209"/>
-      <c r="AJ78" s="209"/>
-      <c r="AK78" s="209"/>
+      <c r="C78" s="208"/>
+      <c r="D78" s="208"/>
+      <c r="E78" s="208"/>
+      <c r="F78" s="208"/>
+      <c r="G78" s="208"/>
+      <c r="H78" s="208"/>
+      <c r="I78" s="208"/>
+      <c r="J78" s="208"/>
+      <c r="K78" s="208"/>
+      <c r="L78" s="208"/>
+      <c r="M78" s="208"/>
+      <c r="N78" s="208"/>
+      <c r="O78" s="208"/>
+      <c r="P78" s="208"/>
+      <c r="Q78" s="208"/>
+      <c r="R78" s="208"/>
+      <c r="S78" s="208"/>
+      <c r="T78" s="208"/>
+      <c r="U78" s="208"/>
+      <c r="V78" s="208"/>
+      <c r="W78" s="208"/>
+      <c r="X78" s="208"/>
+      <c r="Y78" s="208"/>
+      <c r="Z78" s="208"/>
+      <c r="AA78" s="208"/>
+      <c r="AB78" s="208"/>
+      <c r="AC78" s="208"/>
+      <c r="AD78" s="208"/>
+      <c r="AE78" s="208"/>
+      <c r="AF78" s="208"/>
+      <c r="AG78" s="208"/>
+      <c r="AH78" s="208"/>
+      <c r="AI78" s="208"/>
+      <c r="AJ78" s="208"/>
+      <c r="AK78" s="208"/>
     </row>
     <row r="79" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B79" s="8" t="s">
@@ -11362,9 +11358,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X163"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="J13" sqref="J13"/>
-    </sheetView>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -15856,9 +15850,7 @@
   </sheetPr>
   <dimension ref="A1:AI22"/>
   <sheetViews>
-    <sheetView topLeftCell="K1" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22:AI22"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -18811,9 +18803,7 @@
   </sheetPr>
   <dimension ref="A1:AI22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -19818,139 +19808,139 @@
       <c r="A9" s="2" t="s">
         <v>325</v>
       </c>
-      <c r="B9" s="210">
+      <c r="B9" s="5">
         <f>'GREET1 Fuel_Specs'!$D$81</f>
         <v>17906000</v>
       </c>
-      <c r="C9" s="210">
+      <c r="C9" s="5">
         <f>'GREET1 Fuel_Specs'!$D$81</f>
         <v>17906000</v>
       </c>
-      <c r="D9" s="210">
+      <c r="D9" s="5">
         <f>'GREET1 Fuel_Specs'!$D$81</f>
         <v>17906000</v>
       </c>
-      <c r="E9" s="210">
+      <c r="E9" s="5">
         <f>'GREET1 Fuel_Specs'!$D$81</f>
         <v>17906000</v>
       </c>
-      <c r="F9" s="210">
+      <c r="F9" s="5">
         <f>'GREET1 Fuel_Specs'!$D$81</f>
         <v>17906000</v>
       </c>
-      <c r="G9" s="210">
+      <c r="G9" s="5">
         <f>'GREET1 Fuel_Specs'!$D$81</f>
         <v>17906000</v>
       </c>
-      <c r="H9" s="210">
+      <c r="H9" s="5">
         <f>'GREET1 Fuel_Specs'!$D$81</f>
         <v>17906000</v>
       </c>
-      <c r="I9" s="210">
+      <c r="I9" s="5">
         <f>'GREET1 Fuel_Specs'!$D$81</f>
         <v>17906000</v>
       </c>
-      <c r="J9" s="210">
+      <c r="J9" s="5">
         <f>'GREET1 Fuel_Specs'!$D$81</f>
         <v>17906000</v>
       </c>
-      <c r="K9" s="210">
+      <c r="K9" s="5">
         <f>'GREET1 Fuel_Specs'!$D$81</f>
         <v>17906000</v>
       </c>
-      <c r="L9" s="210">
+      <c r="L9" s="5">
         <f>'GREET1 Fuel_Specs'!$D$81</f>
         <v>17906000</v>
       </c>
-      <c r="M9" s="210">
+      <c r="M9" s="5">
         <f>'GREET1 Fuel_Specs'!$D$81</f>
         <v>17906000</v>
       </c>
-      <c r="N9" s="210">
+      <c r="N9" s="5">
         <f>'GREET1 Fuel_Specs'!$D$81</f>
         <v>17906000</v>
       </c>
-      <c r="O9" s="210">
+      <c r="O9" s="5">
         <f>'GREET1 Fuel_Specs'!$D$81</f>
         <v>17906000</v>
       </c>
-      <c r="P9" s="210">
+      <c r="P9" s="5">
         <f>'GREET1 Fuel_Specs'!$D$81</f>
         <v>17906000</v>
       </c>
-      <c r="Q9" s="210">
+      <c r="Q9" s="5">
         <f>'GREET1 Fuel_Specs'!$D$81</f>
         <v>17906000</v>
       </c>
-      <c r="R9" s="210">
+      <c r="R9" s="5">
         <f>'GREET1 Fuel_Specs'!$D$81</f>
         <v>17906000</v>
       </c>
-      <c r="S9" s="210">
+      <c r="S9" s="5">
         <f>'GREET1 Fuel_Specs'!$D$81</f>
         <v>17906000</v>
       </c>
-      <c r="T9" s="210">
+      <c r="T9" s="5">
         <f>'GREET1 Fuel_Specs'!$D$81</f>
         <v>17906000</v>
       </c>
-      <c r="U9" s="210">
+      <c r="U9" s="5">
         <f>'GREET1 Fuel_Specs'!$D$81</f>
         <v>17906000</v>
       </c>
-      <c r="V9" s="210">
+      <c r="V9" s="5">
         <f>'GREET1 Fuel_Specs'!$D$81</f>
         <v>17906000</v>
       </c>
-      <c r="W9" s="210">
+      <c r="W9" s="5">
         <f>'GREET1 Fuel_Specs'!$D$81</f>
         <v>17906000</v>
       </c>
-      <c r="X9" s="210">
+      <c r="X9" s="5">
         <f>'GREET1 Fuel_Specs'!$D$81</f>
         <v>17906000</v>
       </c>
-      <c r="Y9" s="210">
+      <c r="Y9" s="5">
         <f>'GREET1 Fuel_Specs'!$D$81</f>
         <v>17906000</v>
       </c>
-      <c r="Z9" s="210">
+      <c r="Z9" s="5">
         <f>'GREET1 Fuel_Specs'!$D$81</f>
         <v>17906000</v>
       </c>
-      <c r="AA9" s="210">
+      <c r="AA9" s="5">
         <f>'GREET1 Fuel_Specs'!$D$81</f>
         <v>17906000</v>
       </c>
-      <c r="AB9" s="210">
+      <c r="AB9" s="5">
         <f>'GREET1 Fuel_Specs'!$D$81</f>
         <v>17906000</v>
       </c>
-      <c r="AC9" s="210">
+      <c r="AC9" s="5">
         <f>'GREET1 Fuel_Specs'!$D$81</f>
         <v>17906000</v>
       </c>
-      <c r="AD9" s="210">
+      <c r="AD9" s="5">
         <f>'GREET1 Fuel_Specs'!$D$81</f>
         <v>17906000</v>
       </c>
-      <c r="AE9" s="210">
+      <c r="AE9" s="5">
         <f>'GREET1 Fuel_Specs'!$D$81</f>
         <v>17906000</v>
       </c>
-      <c r="AF9" s="210">
+      <c r="AF9" s="5">
         <f>'GREET1 Fuel_Specs'!$D$81</f>
         <v>17906000</v>
       </c>
-      <c r="AG9" s="210">
+      <c r="AG9" s="5">
         <f>'GREET1 Fuel_Specs'!$D$81</f>
         <v>17906000</v>
       </c>
-      <c r="AH9" s="210">
+      <c r="AH9" s="5">
         <f>'GREET1 Fuel_Specs'!$D$81</f>
         <v>17906000</v>
       </c>
-      <c r="AI9" s="210">
+      <c r="AI9" s="5">
         <f>'GREET1 Fuel_Specs'!$D$81</f>
         <v>17906000</v>
       </c>
@@ -19959,139 +19949,139 @@
       <c r="A10" s="2" t="s">
         <v>326</v>
       </c>
-      <c r="B10" s="208">
+      <c r="B10" s="5">
         <f>'AEO Table 73'!C32*10^6/gal_per_barrel</f>
         <v>120396.26190476191</v>
       </c>
-      <c r="C10" s="208">
+      <c r="C10" s="5">
         <f>'AEO Table 73'!D32*10^6/gal_per_barrel</f>
         <v>120363.33333333333</v>
       </c>
-      <c r="D10" s="208">
+      <c r="D10" s="5">
         <f>'AEO Table 73'!E32*10^6/gal_per_barrel</f>
         <v>120379.16666666667</v>
       </c>
-      <c r="E10" s="208">
+      <c r="E10" s="5">
         <f>'AEO Table 73'!F32*10^6/gal_per_barrel</f>
         <v>120387.38095238095</v>
       </c>
-      <c r="F10" s="208">
+      <c r="F10" s="5">
         <f>'AEO Table 73'!G32*10^6/gal_per_barrel</f>
         <v>120365.73809523809</v>
       </c>
-      <c r="G10" s="208">
+      <c r="G10" s="5">
         <f>'AEO Table 73'!H32*10^6/gal_per_barrel</f>
         <v>120317.52380952382</v>
       </c>
-      <c r="H10" s="208">
+      <c r="H10" s="5">
         <f>'AEO Table 73'!I32*10^6/gal_per_barrel</f>
         <v>120257.52380952382</v>
       </c>
-      <c r="I10" s="208">
+      <c r="I10" s="5">
         <f>'AEO Table 73'!J32*10^6/gal_per_barrel</f>
         <v>120238.14285714286</v>
       </c>
-      <c r="J10" s="208">
+      <c r="J10" s="5">
         <f>'AEO Table 73'!K32*10^6/gal_per_barrel</f>
         <v>120225.69047619047</v>
       </c>
-      <c r="K10" s="208">
+      <c r="K10" s="5">
         <f>'AEO Table 73'!L32*10^6/gal_per_barrel</f>
         <v>120215.88095238095</v>
       </c>
-      <c r="L10" s="208">
+      <c r="L10" s="5">
         <f>'AEO Table 73'!M32*10^6/gal_per_barrel</f>
         <v>120205.23809523809</v>
       </c>
-      <c r="M10" s="208">
+      <c r="M10" s="5">
         <f>'AEO Table 73'!N32*10^6/gal_per_barrel</f>
         <v>120194.90476190476</v>
       </c>
-      <c r="N10" s="208">
+      <c r="N10" s="5">
         <f>'AEO Table 73'!O32*10^6/gal_per_barrel</f>
         <v>120184.57142857143</v>
       </c>
-      <c r="O10" s="208">
+      <c r="O10" s="5">
         <f>'AEO Table 73'!P32*10^6/gal_per_barrel</f>
         <v>120186.35714285714</v>
       </c>
-      <c r="P10" s="208">
+      <c r="P10" s="5">
         <f>'AEO Table 73'!Q32*10^6/gal_per_barrel</f>
         <v>120169.33333333333</v>
       </c>
-      <c r="Q10" s="208">
+      <c r="Q10" s="5">
         <f>'AEO Table 73'!R32*10^6/gal_per_barrel</f>
         <v>120159.80952380953</v>
       </c>
-      <c r="R10" s="208">
+      <c r="R10" s="5">
         <f>'AEO Table 73'!S32*10^6/gal_per_barrel</f>
         <v>120153.90476190476</v>
       </c>
-      <c r="S10" s="208">
+      <c r="S10" s="5">
         <f>'AEO Table 73'!T32*10^6/gal_per_barrel</f>
         <v>120139.92857142857</v>
       </c>
-      <c r="T10" s="208">
+      <c r="T10" s="5">
         <f>'AEO Table 73'!U32*10^6/gal_per_barrel</f>
         <v>120123.47619047618</v>
       </c>
-      <c r="U10" s="208">
+      <c r="U10" s="5">
         <f>'AEO Table 73'!V32*10^6/gal_per_barrel</f>
         <v>120105.47619047618</v>
       </c>
-      <c r="V10" s="208">
+      <c r="V10" s="5">
         <f>'AEO Table 73'!W32*10^6/gal_per_barrel</f>
         <v>120085.26190476191</v>
       </c>
-      <c r="W10" s="208">
+      <c r="W10" s="5">
         <f>'AEO Table 73'!X32*10^6/gal_per_barrel</f>
         <v>120065.59523809524</v>
       </c>
-      <c r="X10" s="208">
+      <c r="X10" s="5">
         <f>'AEO Table 73'!Y32*10^6/gal_per_barrel</f>
         <v>120040.19047619047</v>
       </c>
-      <c r="Y10" s="208">
+      <c r="Y10" s="5">
         <f>'AEO Table 73'!Z32*10^6/gal_per_barrel</f>
         <v>120011.85714285714</v>
       </c>
-      <c r="Z10" s="208">
+      <c r="Z10" s="5">
         <f>'AEO Table 73'!AA32*10^6/gal_per_barrel</f>
         <v>119980</v>
       </c>
-      <c r="AA10" s="208">
+      <c r="AA10" s="5">
         <f>'AEO Table 73'!AB32*10^6/gal_per_barrel</f>
         <v>119949.21428571429</v>
       </c>
-      <c r="AB10" s="208">
+      <c r="AB10" s="5">
         <f>'AEO Table 73'!AC32*10^6/gal_per_barrel</f>
         <v>119910.09523809524</v>
       </c>
-      <c r="AC10" s="208">
+      <c r="AC10" s="5">
         <f>'AEO Table 73'!AD32*10^6/gal_per_barrel</f>
         <v>119871.47619047618</v>
       </c>
-      <c r="AD10" s="208">
+      <c r="AD10" s="5">
         <f>'AEO Table 73'!AE32*10^6/gal_per_barrel</f>
         <v>119830.30952380953</v>
       </c>
-      <c r="AE10" s="208">
+      <c r="AE10" s="5">
         <f>'AEO Table 73'!AF32*10^6/gal_per_barrel</f>
         <v>119784.40476190476</v>
       </c>
-      <c r="AF10" s="208">
+      <c r="AF10" s="5">
         <f>'AEO Table 73'!AG32*10^6/gal_per_barrel</f>
         <v>119727.33333333333</v>
       </c>
-      <c r="AG10" s="208">
+      <c r="AG10" s="5">
         <f>'AEO Table 73'!AH32*10^6/gal_per_barrel</f>
         <v>119664.71428571429</v>
       </c>
-      <c r="AH10" s="208">
+      <c r="AH10" s="5">
         <f>'AEO Table 73'!AI32*10^6/gal_per_barrel</f>
         <v>119596.14285714286</v>
       </c>
-      <c r="AI10" s="208">
+      <c r="AI10" s="5">
         <f>'AEO Table 73'!AJ32*10^6/gal_per_barrel</f>
         <v>119596.09523809524</v>
       </c>
@@ -20100,139 +20090,139 @@
       <c r="A11" s="2" t="s">
         <v>327</v>
       </c>
-      <c r="B11" s="208">
+      <c r="B11" s="5">
         <f>'AEO Table 73'!C19*10^6/gal_per_barrel</f>
         <v>138690.47619047618</v>
       </c>
-      <c r="C11" s="208">
+      <c r="C11" s="5">
         <f>'AEO Table 73'!D19*10^6/gal_per_barrel</f>
         <v>138690.47619047618</v>
       </c>
-      <c r="D11" s="208">
+      <c r="D11" s="5">
         <f>'AEO Table 73'!E19*10^6/gal_per_barrel</f>
         <v>138690.47619047618</v>
       </c>
-      <c r="E11" s="208">
+      <c r="E11" s="5">
         <f>'AEO Table 73'!F19*10^6/gal_per_barrel</f>
         <v>138690.47619047618</v>
       </c>
-      <c r="F11" s="208">
+      <c r="F11" s="5">
         <f>'AEO Table 73'!G19*10^6/gal_per_barrel</f>
         <v>138690.47619047618</v>
       </c>
-      <c r="G11" s="208">
+      <c r="G11" s="5">
         <f>'AEO Table 73'!H19*10^6/gal_per_barrel</f>
         <v>138690.47619047618</v>
       </c>
-      <c r="H11" s="208">
+      <c r="H11" s="5">
         <f>'AEO Table 73'!I19*10^6/gal_per_barrel</f>
         <v>138690.47619047618</v>
       </c>
-      <c r="I11" s="208">
+      <c r="I11" s="5">
         <f>'AEO Table 73'!J19*10^6/gal_per_barrel</f>
         <v>138690.47619047618</v>
       </c>
-      <c r="J11" s="208">
+      <c r="J11" s="5">
         <f>'AEO Table 73'!K19*10^6/gal_per_barrel</f>
         <v>138690.47619047618</v>
       </c>
-      <c r="K11" s="208">
+      <c r="K11" s="5">
         <f>'AEO Table 73'!L19*10^6/gal_per_barrel</f>
         <v>138690.47619047618</v>
       </c>
-      <c r="L11" s="208">
+      <c r="L11" s="5">
         <f>'AEO Table 73'!M19*10^6/gal_per_barrel</f>
         <v>138690.47619047618</v>
       </c>
-      <c r="M11" s="208">
+      <c r="M11" s="5">
         <f>'AEO Table 73'!N19*10^6/gal_per_barrel</f>
         <v>138690.47619047618</v>
       </c>
-      <c r="N11" s="208">
+      <c r="N11" s="5">
         <f>'AEO Table 73'!O19*10^6/gal_per_barrel</f>
         <v>138690.47619047618</v>
       </c>
-      <c r="O11" s="208">
+      <c r="O11" s="5">
         <f>'AEO Table 73'!P19*10^6/gal_per_barrel</f>
         <v>138690.47619047618</v>
       </c>
-      <c r="P11" s="208">
+      <c r="P11" s="5">
         <f>'AEO Table 73'!Q19*10^6/gal_per_barrel</f>
         <v>138690.47619047618</v>
       </c>
-      <c r="Q11" s="208">
+      <c r="Q11" s="5">
         <f>'AEO Table 73'!R19*10^6/gal_per_barrel</f>
         <v>138690.47619047618</v>
       </c>
-      <c r="R11" s="208">
+      <c r="R11" s="5">
         <f>'AEO Table 73'!S19*10^6/gal_per_barrel</f>
         <v>138690.47619047618</v>
       </c>
-      <c r="S11" s="208">
+      <c r="S11" s="5">
         <f>'AEO Table 73'!T19*10^6/gal_per_barrel</f>
         <v>138690.47619047618</v>
       </c>
-      <c r="T11" s="208">
+      <c r="T11" s="5">
         <f>'AEO Table 73'!U19*10^6/gal_per_barrel</f>
         <v>138690.47619047618</v>
       </c>
-      <c r="U11" s="208">
+      <c r="U11" s="5">
         <f>'AEO Table 73'!V19*10^6/gal_per_barrel</f>
         <v>138690.47619047618</v>
       </c>
-      <c r="V11" s="208">
+      <c r="V11" s="5">
         <f>'AEO Table 73'!W19*10^6/gal_per_barrel</f>
         <v>138690.47619047618</v>
       </c>
-      <c r="W11" s="208">
+      <c r="W11" s="5">
         <f>'AEO Table 73'!X19*10^6/gal_per_barrel</f>
         <v>138690.47619047618</v>
       </c>
-      <c r="X11" s="208">
+      <c r="X11" s="5">
         <f>'AEO Table 73'!Y19*10^6/gal_per_barrel</f>
         <v>138690.47619047618</v>
       </c>
-      <c r="Y11" s="208">
+      <c r="Y11" s="5">
         <f>'AEO Table 73'!Z19*10^6/gal_per_barrel</f>
         <v>138690.47619047618</v>
       </c>
-      <c r="Z11" s="208">
+      <c r="Z11" s="5">
         <f>'AEO Table 73'!AA19*10^6/gal_per_barrel</f>
         <v>138690.47619047618</v>
       </c>
-      <c r="AA11" s="208">
+      <c r="AA11" s="5">
         <f>'AEO Table 73'!AB19*10^6/gal_per_barrel</f>
         <v>138690.47619047618</v>
       </c>
-      <c r="AB11" s="208">
+      <c r="AB11" s="5">
         <f>'AEO Table 73'!AC19*10^6/gal_per_barrel</f>
         <v>138690.47619047618</v>
       </c>
-      <c r="AC11" s="208">
+      <c r="AC11" s="5">
         <f>'AEO Table 73'!AD19*10^6/gal_per_barrel</f>
         <v>138690.47619047618</v>
       </c>
-      <c r="AD11" s="208">
+      <c r="AD11" s="5">
         <f>'AEO Table 73'!AE19*10^6/gal_per_barrel</f>
         <v>138690.47619047618</v>
       </c>
-      <c r="AE11" s="208">
+      <c r="AE11" s="5">
         <f>'AEO Table 73'!AF19*10^6/gal_per_barrel</f>
         <v>138690.47619047618</v>
       </c>
-      <c r="AF11" s="208">
+      <c r="AF11" s="5">
         <f>'AEO Table 73'!AG19*10^6/gal_per_barrel</f>
         <v>138690.47619047618</v>
       </c>
-      <c r="AG11" s="208">
+      <c r="AG11" s="5">
         <f>'AEO Table 73'!AH19*10^6/gal_per_barrel</f>
         <v>138690.47619047618</v>
       </c>
-      <c r="AH11" s="208">
+      <c r="AH11" s="5">
         <f>'AEO Table 73'!AI19*10^6/gal_per_barrel</f>
         <v>138690.47619047618</v>
       </c>
-      <c r="AI11" s="208">
+      <c r="AI11" s="5">
         <f>'AEO Table 73'!AJ19*10^6/gal_per_barrel</f>
         <v>138690.47619047618</v>
       </c>
@@ -20241,139 +20231,139 @@
       <c r="A12" s="2" t="s">
         <v>328</v>
       </c>
-      <c r="B12" s="208">
+      <c r="B12" s="5">
         <f>'AEO Table 73'!C29*10^6/gal_per_barrel</f>
         <v>95171.904761904763</v>
       </c>
-      <c r="C12" s="208">
+      <c r="C12" s="5">
         <f>'AEO Table 73'!D29*10^6/gal_per_barrel</f>
         <v>94981.738095238092</v>
       </c>
-      <c r="D12" s="208">
+      <c r="D12" s="5">
         <f>'AEO Table 73'!E29*10^6/gal_per_barrel</f>
         <v>94981.738095238092</v>
       </c>
-      <c r="E12" s="208">
+      <c r="E12" s="5">
         <f>'AEO Table 73'!F29*10^6/gal_per_barrel</f>
         <v>94981.738095238092</v>
       </c>
-      <c r="F12" s="208">
+      <c r="F12" s="5">
         <f>'AEO Table 73'!G29*10^6/gal_per_barrel</f>
         <v>94981.738095238092</v>
       </c>
-      <c r="G12" s="208">
+      <c r="G12" s="5">
         <f>'AEO Table 73'!H29*10^6/gal_per_barrel</f>
         <v>94981.738095238092</v>
       </c>
-      <c r="H12" s="208">
+      <c r="H12" s="5">
         <f>'AEO Table 73'!I29*10^6/gal_per_barrel</f>
         <v>94981.738095238092</v>
       </c>
-      <c r="I12" s="208">
+      <c r="I12" s="5">
         <f>'AEO Table 73'!J29*10^6/gal_per_barrel</f>
         <v>94981.738095238092</v>
       </c>
-      <c r="J12" s="208">
+      <c r="J12" s="5">
         <f>'AEO Table 73'!K29*10^6/gal_per_barrel</f>
         <v>94981.738095238092</v>
       </c>
-      <c r="K12" s="208">
+      <c r="K12" s="5">
         <f>'AEO Table 73'!L29*10^6/gal_per_barrel</f>
         <v>94981.738095238092</v>
       </c>
-      <c r="L12" s="208">
+      <c r="L12" s="5">
         <f>'AEO Table 73'!M29*10^6/gal_per_barrel</f>
         <v>94981.738095238092</v>
       </c>
-      <c r="M12" s="208">
+      <c r="M12" s="5">
         <f>'AEO Table 73'!N29*10^6/gal_per_barrel</f>
         <v>94981.738095238092</v>
       </c>
-      <c r="N12" s="208">
+      <c r="N12" s="5">
         <f>'AEO Table 73'!O29*10^6/gal_per_barrel</f>
         <v>94981.738095238092</v>
       </c>
-      <c r="O12" s="208">
+      <c r="O12" s="5">
         <f>'AEO Table 73'!P29*10^6/gal_per_barrel</f>
         <v>94981.738095238092</v>
       </c>
-      <c r="P12" s="208">
+      <c r="P12" s="5">
         <f>'AEO Table 73'!Q29*10^6/gal_per_barrel</f>
         <v>94981.738095238092</v>
       </c>
-      <c r="Q12" s="208">
+      <c r="Q12" s="5">
         <f>'AEO Table 73'!R29*10^6/gal_per_barrel</f>
         <v>94981.738095238092</v>
       </c>
-      <c r="R12" s="208">
+      <c r="R12" s="5">
         <f>'AEO Table 73'!S29*10^6/gal_per_barrel</f>
         <v>94981.738095238092</v>
       </c>
-      <c r="S12" s="208">
+      <c r="S12" s="5">
         <f>'AEO Table 73'!T29*10^6/gal_per_barrel</f>
         <v>94981.738095238092</v>
       </c>
-      <c r="T12" s="208">
+      <c r="T12" s="5">
         <f>'AEO Table 73'!U29*10^6/gal_per_barrel</f>
         <v>94981.738095238092</v>
       </c>
-      <c r="U12" s="208">
+      <c r="U12" s="5">
         <f>'AEO Table 73'!V29*10^6/gal_per_barrel</f>
         <v>94981.738095238092</v>
       </c>
-      <c r="V12" s="208">
+      <c r="V12" s="5">
         <f>'AEO Table 73'!W29*10^6/gal_per_barrel</f>
         <v>94981.738095238092</v>
       </c>
-      <c r="W12" s="208">
+      <c r="W12" s="5">
         <f>'AEO Table 73'!X29*10^6/gal_per_barrel</f>
         <v>94981.738095238092</v>
       </c>
-      <c r="X12" s="208">
+      <c r="X12" s="5">
         <f>'AEO Table 73'!Y29*10^6/gal_per_barrel</f>
         <v>94981.738095238092</v>
       </c>
-      <c r="Y12" s="208">
+      <c r="Y12" s="5">
         <f>'AEO Table 73'!Z29*10^6/gal_per_barrel</f>
         <v>94981.738095238092</v>
       </c>
-      <c r="Z12" s="208">
+      <c r="Z12" s="5">
         <f>'AEO Table 73'!AA29*10^6/gal_per_barrel</f>
         <v>94981.738095238092</v>
       </c>
-      <c r="AA12" s="208">
+      <c r="AA12" s="5">
         <f>'AEO Table 73'!AB29*10^6/gal_per_barrel</f>
         <v>94981.738095238092</v>
       </c>
-      <c r="AB12" s="208">
+      <c r="AB12" s="5">
         <f>'AEO Table 73'!AC29*10^6/gal_per_barrel</f>
         <v>94981.738095238092</v>
       </c>
-      <c r="AC12" s="208">
+      <c r="AC12" s="5">
         <f>'AEO Table 73'!AD29*10^6/gal_per_barrel</f>
         <v>94981.738095238092</v>
       </c>
-      <c r="AD12" s="208">
+      <c r="AD12" s="5">
         <f>'AEO Table 73'!AE29*10^6/gal_per_barrel</f>
         <v>94981.738095238092</v>
       </c>
-      <c r="AE12" s="208">
+      <c r="AE12" s="5">
         <f>'AEO Table 73'!AF29*10^6/gal_per_barrel</f>
         <v>94981.738095238092</v>
       </c>
-      <c r="AF12" s="208">
+      <c r="AF12" s="5">
         <f>'AEO Table 73'!AG29*10^6/gal_per_barrel</f>
         <v>94981.738095238092</v>
       </c>
-      <c r="AG12" s="208">
+      <c r="AG12" s="5">
         <f>'AEO Table 73'!AH29*10^6/gal_per_barrel</f>
         <v>94981.738095238092</v>
       </c>
-      <c r="AH12" s="208">
+      <c r="AH12" s="5">
         <f>'AEO Table 73'!AI29*10^6/gal_per_barrel</f>
         <v>94981.738095238092</v>
       </c>
-      <c r="AI12" s="208">
+      <c r="AI12" s="5">
         <f>'AEO Table 73'!AJ29*10^6/gal_per_barrel</f>
         <v>94981.738095238092</v>
       </c>
@@ -20382,139 +20372,139 @@
       <c r="A13" s="2" t="s">
         <v>329</v>
       </c>
-      <c r="B13" s="208">
+      <c r="B13" s="5">
         <f>'AEO Table 73'!C18*10^6/gal_per_barrel</f>
         <v>127595.23809523809</v>
       </c>
-      <c r="C13" s="208">
+      <c r="C13" s="5">
         <f>'AEO Table 73'!D18*10^6/gal_per_barrel</f>
         <v>127595.23809523809</v>
       </c>
-      <c r="D13" s="208">
+      <c r="D13" s="5">
         <f>'AEO Table 73'!E18*10^6/gal_per_barrel</f>
         <v>127595.23809523809</v>
       </c>
-      <c r="E13" s="208">
+      <c r="E13" s="5">
         <f>'AEO Table 73'!F18*10^6/gal_per_barrel</f>
         <v>127595.23809523809</v>
       </c>
-      <c r="F13" s="208">
+      <c r="F13" s="5">
         <f>'AEO Table 73'!G18*10^6/gal_per_barrel</f>
         <v>127595.23809523809</v>
       </c>
-      <c r="G13" s="208">
+      <c r="G13" s="5">
         <f>'AEO Table 73'!H18*10^6/gal_per_barrel</f>
         <v>127595.23809523809</v>
       </c>
-      <c r="H13" s="208">
+      <c r="H13" s="5">
         <f>'AEO Table 73'!I18*10^6/gal_per_barrel</f>
         <v>127595.23809523809</v>
       </c>
-      <c r="I13" s="208">
+      <c r="I13" s="5">
         <f>'AEO Table 73'!J18*10^6/gal_per_barrel</f>
         <v>127595.23809523809</v>
       </c>
-      <c r="J13" s="208">
+      <c r="J13" s="5">
         <f>'AEO Table 73'!K18*10^6/gal_per_barrel</f>
         <v>127595.23809523809</v>
       </c>
-      <c r="K13" s="208">
+      <c r="K13" s="5">
         <f>'AEO Table 73'!L18*10^6/gal_per_barrel</f>
         <v>127595.23809523809</v>
       </c>
-      <c r="L13" s="208">
+      <c r="L13" s="5">
         <f>'AEO Table 73'!M18*10^6/gal_per_barrel</f>
         <v>127595.23809523809</v>
       </c>
-      <c r="M13" s="208">
+      <c r="M13" s="5">
         <f>'AEO Table 73'!N18*10^6/gal_per_barrel</f>
         <v>127595.23809523809</v>
       </c>
-      <c r="N13" s="208">
+      <c r="N13" s="5">
         <f>'AEO Table 73'!O18*10^6/gal_per_barrel</f>
         <v>127595.23809523809</v>
       </c>
-      <c r="O13" s="208">
+      <c r="O13" s="5">
         <f>'AEO Table 73'!P18*10^6/gal_per_barrel</f>
         <v>127595.23809523809</v>
       </c>
-      <c r="P13" s="208">
+      <c r="P13" s="5">
         <f>'AEO Table 73'!Q18*10^6/gal_per_barrel</f>
         <v>127595.23809523809</v>
       </c>
-      <c r="Q13" s="208">
+      <c r="Q13" s="5">
         <f>'AEO Table 73'!R18*10^6/gal_per_barrel</f>
         <v>127595.23809523809</v>
       </c>
-      <c r="R13" s="208">
+      <c r="R13" s="5">
         <f>'AEO Table 73'!S18*10^6/gal_per_barrel</f>
         <v>127595.23809523809</v>
       </c>
-      <c r="S13" s="208">
+      <c r="S13" s="5">
         <f>'AEO Table 73'!T18*10^6/gal_per_barrel</f>
         <v>127595.23809523809</v>
       </c>
-      <c r="T13" s="208">
+      <c r="T13" s="5">
         <f>'AEO Table 73'!U18*10^6/gal_per_barrel</f>
         <v>127595.23809523809</v>
       </c>
-      <c r="U13" s="208">
+      <c r="U13" s="5">
         <f>'AEO Table 73'!V18*10^6/gal_per_barrel</f>
         <v>127595.23809523809</v>
       </c>
-      <c r="V13" s="208">
+      <c r="V13" s="5">
         <f>'AEO Table 73'!W18*10^6/gal_per_barrel</f>
         <v>127595.23809523809</v>
       </c>
-      <c r="W13" s="208">
+      <c r="W13" s="5">
         <f>'AEO Table 73'!X18*10^6/gal_per_barrel</f>
         <v>127595.23809523809</v>
       </c>
-      <c r="X13" s="208">
+      <c r="X13" s="5">
         <f>'AEO Table 73'!Y18*10^6/gal_per_barrel</f>
         <v>127595.23809523809</v>
       </c>
-      <c r="Y13" s="208">
+      <c r="Y13" s="5">
         <f>'AEO Table 73'!Z18*10^6/gal_per_barrel</f>
         <v>127595.23809523809</v>
       </c>
-      <c r="Z13" s="208">
+      <c r="Z13" s="5">
         <f>'AEO Table 73'!AA18*10^6/gal_per_barrel</f>
         <v>127595.23809523809</v>
       </c>
-      <c r="AA13" s="208">
+      <c r="AA13" s="5">
         <f>'AEO Table 73'!AB18*10^6/gal_per_barrel</f>
         <v>127595.23809523809</v>
       </c>
-      <c r="AB13" s="208">
+      <c r="AB13" s="5">
         <f>'AEO Table 73'!AC18*10^6/gal_per_barrel</f>
         <v>127595.23809523809</v>
       </c>
-      <c r="AC13" s="208">
+      <c r="AC13" s="5">
         <f>'AEO Table 73'!AD18*10^6/gal_per_barrel</f>
         <v>127595.23809523809</v>
       </c>
-      <c r="AD13" s="208">
+      <c r="AD13" s="5">
         <f>'AEO Table 73'!AE18*10^6/gal_per_barrel</f>
         <v>127595.23809523809</v>
       </c>
-      <c r="AE13" s="208">
+      <c r="AE13" s="5">
         <f>'AEO Table 73'!AF18*10^6/gal_per_barrel</f>
         <v>127595.23809523809</v>
       </c>
-      <c r="AF13" s="208">
+      <c r="AF13" s="5">
         <f>'AEO Table 73'!AG18*10^6/gal_per_barrel</f>
         <v>127595.23809523809</v>
       </c>
-      <c r="AG13" s="208">
+      <c r="AG13" s="5">
         <f>'AEO Table 73'!AH18*10^6/gal_per_barrel</f>
         <v>127595.23809523809</v>
       </c>
-      <c r="AH13" s="208">
+      <c r="AH13" s="5">
         <f>'AEO Table 73'!AI18*10^6/gal_per_barrel</f>
         <v>127595.23809523809</v>
       </c>
-      <c r="AI13" s="208">
+      <c r="AI13" s="5">
         <f>'AEO Table 73'!AJ18*10^6/gal_per_barrel</f>
         <v>127595.23809523809</v>
       </c>
@@ -20912,139 +20902,139 @@
       <c r="A17" s="2" t="s">
         <v>330</v>
       </c>
-      <c r="B17" s="210">
+      <c r="B17" s="5">
         <f>'GREET1 Fuel_Specs'!$D$69</f>
         <v>12992301.9717196</v>
       </c>
-      <c r="C17" s="210">
+      <c r="C17" s="5">
         <f>'GREET1 Fuel_Specs'!$D$69</f>
         <v>12992301.9717196</v>
       </c>
-      <c r="D17" s="210">
+      <c r="D17" s="5">
         <f>'GREET1 Fuel_Specs'!$D$69</f>
         <v>12992301.9717196</v>
       </c>
-      <c r="E17" s="210">
+      <c r="E17" s="5">
         <f>'GREET1 Fuel_Specs'!$D$69</f>
         <v>12992301.9717196</v>
       </c>
-      <c r="F17" s="210">
+      <c r="F17" s="5">
         <f>'GREET1 Fuel_Specs'!$D$69</f>
         <v>12992301.9717196</v>
       </c>
-      <c r="G17" s="210">
+      <c r="G17" s="5">
         <f>'GREET1 Fuel_Specs'!$D$69</f>
         <v>12992301.9717196</v>
       </c>
-      <c r="H17" s="210">
+      <c r="H17" s="5">
         <f>'GREET1 Fuel_Specs'!$D$69</f>
         <v>12992301.9717196</v>
       </c>
-      <c r="I17" s="210">
+      <c r="I17" s="5">
         <f>'GREET1 Fuel_Specs'!$D$69</f>
         <v>12992301.9717196</v>
       </c>
-      <c r="J17" s="210">
+      <c r="J17" s="5">
         <f>'GREET1 Fuel_Specs'!$D$69</f>
         <v>12992301.9717196</v>
       </c>
-      <c r="K17" s="210">
+      <c r="K17" s="5">
         <f>'GREET1 Fuel_Specs'!$D$69</f>
         <v>12992301.9717196</v>
       </c>
-      <c r="L17" s="210">
+      <c r="L17" s="5">
         <f>'GREET1 Fuel_Specs'!$D$69</f>
         <v>12992301.9717196</v>
       </c>
-      <c r="M17" s="210">
+      <c r="M17" s="5">
         <f>'GREET1 Fuel_Specs'!$D$69</f>
         <v>12992301.9717196</v>
       </c>
-      <c r="N17" s="210">
+      <c r="N17" s="5">
         <f>'GREET1 Fuel_Specs'!$D$69</f>
         <v>12992301.9717196</v>
       </c>
-      <c r="O17" s="210">
+      <c r="O17" s="5">
         <f>'GREET1 Fuel_Specs'!$D$69</f>
         <v>12992301.9717196</v>
       </c>
-      <c r="P17" s="210">
+      <c r="P17" s="5">
         <f>'GREET1 Fuel_Specs'!$D$69</f>
         <v>12992301.9717196</v>
       </c>
-      <c r="Q17" s="210">
+      <c r="Q17" s="5">
         <f>'GREET1 Fuel_Specs'!$D$69</f>
         <v>12992301.9717196</v>
       </c>
-      <c r="R17" s="210">
+      <c r="R17" s="5">
         <f>'GREET1 Fuel_Specs'!$D$69</f>
         <v>12992301.9717196</v>
       </c>
-      <c r="S17" s="210">
+      <c r="S17" s="5">
         <f>'GREET1 Fuel_Specs'!$D$69</f>
         <v>12992301.9717196</v>
       </c>
-      <c r="T17" s="210">
+      <c r="T17" s="5">
         <f>'GREET1 Fuel_Specs'!$D$69</f>
         <v>12992301.9717196</v>
       </c>
-      <c r="U17" s="210">
+      <c r="U17" s="5">
         <f>'GREET1 Fuel_Specs'!$D$69</f>
         <v>12992301.9717196</v>
       </c>
-      <c r="V17" s="210">
+      <c r="V17" s="5">
         <f>'GREET1 Fuel_Specs'!$D$69</f>
         <v>12992301.9717196</v>
       </c>
-      <c r="W17" s="210">
+      <c r="W17" s="5">
         <f>'GREET1 Fuel_Specs'!$D$69</f>
         <v>12992301.9717196</v>
       </c>
-      <c r="X17" s="210">
+      <c r="X17" s="5">
         <f>'GREET1 Fuel_Specs'!$D$69</f>
         <v>12992301.9717196</v>
       </c>
-      <c r="Y17" s="210">
+      <c r="Y17" s="5">
         <f>'GREET1 Fuel_Specs'!$D$69</f>
         <v>12992301.9717196</v>
       </c>
-      <c r="Z17" s="210">
+      <c r="Z17" s="5">
         <f>'GREET1 Fuel_Specs'!$D$69</f>
         <v>12992301.9717196</v>
       </c>
-      <c r="AA17" s="210">
+      <c r="AA17" s="5">
         <f>'GREET1 Fuel_Specs'!$D$69</f>
         <v>12992301.9717196</v>
       </c>
-      <c r="AB17" s="210">
+      <c r="AB17" s="5">
         <f>'GREET1 Fuel_Specs'!$D$69</f>
         <v>12992301.9717196</v>
       </c>
-      <c r="AC17" s="210">
+      <c r="AC17" s="5">
         <f>'GREET1 Fuel_Specs'!$D$69</f>
         <v>12992301.9717196</v>
       </c>
-      <c r="AD17" s="210">
+      <c r="AD17" s="5">
         <f>'GREET1 Fuel_Specs'!$D$69</f>
         <v>12992301.9717196</v>
       </c>
-      <c r="AE17" s="210">
+      <c r="AE17" s="5">
         <f>'GREET1 Fuel_Specs'!$D$69</f>
         <v>12992301.9717196</v>
       </c>
-      <c r="AF17" s="210">
+      <c r="AF17" s="5">
         <f>'GREET1 Fuel_Specs'!$D$69</f>
         <v>12992301.9717196</v>
       </c>
-      <c r="AG17" s="210">
+      <c r="AG17" s="5">
         <f>'GREET1 Fuel_Specs'!$D$69</f>
         <v>12992301.9717196</v>
       </c>
-      <c r="AH17" s="210">
+      <c r="AH17" s="5">
         <f>'GREET1 Fuel_Specs'!$D$69</f>
         <v>12992301.9717196</v>
       </c>
-      <c r="AI17" s="210">
+      <c r="AI17" s="5">
         <f>'GREET1 Fuel_Specs'!$D$69</f>
         <v>12992301.9717196</v>
       </c>
@@ -21335,139 +21325,139 @@
       <c r="A20" s="2" t="s">
         <v>370</v>
       </c>
-      <c r="B20" s="210">
+      <c r="B20" s="5">
         <f>'GREET1 Fuel_Specs'!$D$36</f>
         <v>91410</v>
       </c>
-      <c r="C20" s="210">
+      <c r="C20" s="5">
         <f>'GREET1 Fuel_Specs'!$D$36</f>
         <v>91410</v>
       </c>
-      <c r="D20" s="210">
+      <c r="D20" s="5">
         <f>'GREET1 Fuel_Specs'!$D$36</f>
         <v>91410</v>
       </c>
-      <c r="E20" s="210">
+      <c r="E20" s="5">
         <f>'GREET1 Fuel_Specs'!$D$36</f>
         <v>91410</v>
       </c>
-      <c r="F20" s="210">
+      <c r="F20" s="5">
         <f>'GREET1 Fuel_Specs'!$D$36</f>
         <v>91410</v>
       </c>
-      <c r="G20" s="210">
+      <c r="G20" s="5">
         <f>'GREET1 Fuel_Specs'!$D$36</f>
         <v>91410</v>
       </c>
-      <c r="H20" s="210">
+      <c r="H20" s="5">
         <f>'GREET1 Fuel_Specs'!$D$36</f>
         <v>91410</v>
       </c>
-      <c r="I20" s="210">
+      <c r="I20" s="5">
         <f>'GREET1 Fuel_Specs'!$D$36</f>
         <v>91410</v>
       </c>
-      <c r="J20" s="210">
+      <c r="J20" s="5">
         <f>'GREET1 Fuel_Specs'!$D$36</f>
         <v>91410</v>
       </c>
-      <c r="K20" s="210">
+      <c r="K20" s="5">
         <f>'GREET1 Fuel_Specs'!$D$36</f>
         <v>91410</v>
       </c>
-      <c r="L20" s="210">
+      <c r="L20" s="5">
         <f>'GREET1 Fuel_Specs'!$D$36</f>
         <v>91410</v>
       </c>
-      <c r="M20" s="210">
+      <c r="M20" s="5">
         <f>'GREET1 Fuel_Specs'!$D$36</f>
         <v>91410</v>
       </c>
-      <c r="N20" s="210">
+      <c r="N20" s="5">
         <f>'GREET1 Fuel_Specs'!$D$36</f>
         <v>91410</v>
       </c>
-      <c r="O20" s="210">
+      <c r="O20" s="5">
         <f>'GREET1 Fuel_Specs'!$D$36</f>
         <v>91410</v>
       </c>
-      <c r="P20" s="210">
+      <c r="P20" s="5">
         <f>'GREET1 Fuel_Specs'!$D$36</f>
         <v>91410</v>
       </c>
-      <c r="Q20" s="210">
+      <c r="Q20" s="5">
         <f>'GREET1 Fuel_Specs'!$D$36</f>
         <v>91410</v>
       </c>
-      <c r="R20" s="210">
+      <c r="R20" s="5">
         <f>'GREET1 Fuel_Specs'!$D$36</f>
         <v>91410</v>
       </c>
-      <c r="S20" s="210">
+      <c r="S20" s="5">
         <f>'GREET1 Fuel_Specs'!$D$36</f>
         <v>91410</v>
       </c>
-      <c r="T20" s="210">
+      <c r="T20" s="5">
         <f>'GREET1 Fuel_Specs'!$D$36</f>
         <v>91410</v>
       </c>
-      <c r="U20" s="210">
+      <c r="U20" s="5">
         <f>'GREET1 Fuel_Specs'!$D$36</f>
         <v>91410</v>
       </c>
-      <c r="V20" s="210">
+      <c r="V20" s="5">
         <f>'GREET1 Fuel_Specs'!$D$36</f>
         <v>91410</v>
       </c>
-      <c r="W20" s="210">
+      <c r="W20" s="5">
         <f>'GREET1 Fuel_Specs'!$D$36</f>
         <v>91410</v>
       </c>
-      <c r="X20" s="210">
+      <c r="X20" s="5">
         <f>'GREET1 Fuel_Specs'!$D$36</f>
         <v>91410</v>
       </c>
-      <c r="Y20" s="210">
+      <c r="Y20" s="5">
         <f>'GREET1 Fuel_Specs'!$D$36</f>
         <v>91410</v>
       </c>
-      <c r="Z20" s="210">
+      <c r="Z20" s="5">
         <f>'GREET1 Fuel_Specs'!$D$36</f>
         <v>91410</v>
       </c>
-      <c r="AA20" s="210">
+      <c r="AA20" s="5">
         <f>'GREET1 Fuel_Specs'!$D$36</f>
         <v>91410</v>
       </c>
-      <c r="AB20" s="210">
+      <c r="AB20" s="5">
         <f>'GREET1 Fuel_Specs'!$D$36</f>
         <v>91410</v>
       </c>
-      <c r="AC20" s="210">
+      <c r="AC20" s="5">
         <f>'GREET1 Fuel_Specs'!$D$36</f>
         <v>91410</v>
       </c>
-      <c r="AD20" s="210">
+      <c r="AD20" s="5">
         <f>'GREET1 Fuel_Specs'!$D$36</f>
         <v>91410</v>
       </c>
-      <c r="AE20" s="210">
+      <c r="AE20" s="5">
         <f>'GREET1 Fuel_Specs'!$D$36</f>
         <v>91410</v>
       </c>
-      <c r="AF20" s="210">
+      <c r="AF20" s="5">
         <f>'GREET1 Fuel_Specs'!$D$36</f>
         <v>91410</v>
       </c>
-      <c r="AG20" s="210">
+      <c r="AG20" s="5">
         <f>'GREET1 Fuel_Specs'!$D$36</f>
         <v>91410</v>
       </c>
-      <c r="AH20" s="210">
+      <c r="AH20" s="5">
         <f>'GREET1 Fuel_Specs'!$D$36</f>
         <v>91410</v>
       </c>
-      <c r="AI20" s="210">
+      <c r="AI20" s="5">
         <f>'GREET1 Fuel_Specs'!$D$36</f>
         <v>91410</v>
       </c>
@@ -21766,9 +21756,7 @@
   </sheetPr>
   <dimension ref="A1:AI11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -23067,9 +23055,7 @@
   </sheetPr>
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
